--- a/report/dataset_versions.xlsx
+++ b/report/dataset_versions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pablo\Google Drive\Trabalho\Projetos\ship-detector-classifier\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF834A9-57A4-43FE-94C5-377FDA4B704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92838B9D-8DF3-4E70-B3E6-B077C21D44CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19965" yWindow="0" windowWidth="18435" windowHeight="15600" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Version 2 (Number of Files)" sheetId="3" r:id="rId3"/>
     <sheet name="Version 2 (Average AD)" sheetId="4" r:id="rId4"/>
     <sheet name="Version 3 (Number of Files)" sheetId="5" r:id="rId5"/>
-    <sheet name="Version 3 (Average AD)" sheetId="6" r:id="rId6"/>
+    <sheet name="Version 3 (Average AD)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>Version 1</t>
   </si>
@@ -163,15 +163,6 @@
     <t xml:space="preserve">Max Ratio (D/H)  </t>
   </si>
   <si>
-    <t>Min AD (m)</t>
-  </si>
-  <si>
-    <t>Max AD (m)</t>
-  </si>
-  <si>
-    <t>MAD (m)</t>
-  </si>
-  <si>
     <t>MAD (mm)</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>Training Vessels</t>
   </si>
   <si>
-    <t>MAD (in mm)</t>
-  </si>
-  <si>
     <t>MAD (in m)</t>
   </si>
   <si>
@@ -214,14 +202,26 @@
     <t>Utility Vessels</t>
   </si>
   <si>
-    <t xml:space="preserve"> Passenger Ships</t>
+    <t>Min AD (mm)</t>
+  </si>
+  <si>
+    <t>Max AD (mm)</t>
+  </si>
+  <si>
+    <t>M Max AD (in mm)</t>
+  </si>
+  <si>
+    <t>M Min AD (in mm)</t>
+  </si>
+  <si>
+    <t>Passenger Ships</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -329,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -637,19 +643,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -676,15 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -698,17 +682,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -740,11 +713,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,34 +787,22 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,32 +811,29 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,34 +841,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,34 +856,90 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,14 +1175,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2735,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2750,29 +2760,27 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="26" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2795,19 +2803,16 @@
         <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B3</f>
         <v>Container Ships</v>
@@ -2831,23 +2836,19 @@
         <v>0.35</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:I3" si="0">((1-F3)/(F3))*B3</f>
-        <v>33.3611491935483</v>
+        <f>(((1-F3)/(F3))*B3)*1000</f>
+        <v>33361.149193548299</v>
       </c>
       <c r="I3" s="6">
-        <f>((1-G3)/(G3))*B3</f>
-        <v>20.652139976958473</v>
+        <f>(((1-G3)/(G3))*B3)*1000</f>
+        <v>20652.139976958475</v>
       </c>
       <c r="J3" s="6">
         <f>(H3+I3)/2</f>
-        <v>27.006644585253387</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K28" si="1">J3*1000</f>
         <v>27006.644585253387</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B4</f>
         <v>Bulk Carriers</v>
@@ -2871,23 +2872,19 @@
         <v>0.4</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:I4" si="2">((1-F4)/(F4))*B4</f>
-        <v>22.780524017467254</v>
+        <f t="shared" ref="H4:H28" si="0">(((1-F4)/(F4))*B4)*1000</f>
+        <v>22780.524017467254</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I28" si="3">((1-G4)/(G4))*B4</f>
-        <v>14.644622582657519</v>
+        <f t="shared" ref="I4:I28" si="1">(((1-G4)/(G4))*B4)*1000</f>
+        <v>14644.622582657519</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J28" si="4">(H4+I4)/2</f>
-        <v>18.712573300062388</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J4:J28" si="2">(H4+I4)/2</f>
         <v>18712.573300062388</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B5</f>
         <v>Passengers Ships</v>
@@ -2911,23 +2908,19 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:I5" si="5">((1-F5)/(F5))*B5</f>
-        <v>21.317153024911001</v>
+        <f t="shared" si="0"/>
+        <v>21317.153024911</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="3"/>
-        <v>12.435005931198084</v>
+        <f t="shared" si="1"/>
+        <v>12435.005931198084</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="4"/>
-        <v>16.876079478054542</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="1"/>
-        <v>16876.079478054544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>16876.07947805454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B6</f>
         <v>Ro-ro Passenger Ships</v>
@@ -2951,23 +2944,19 @@
         <v>0.3</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H28" si="6">((1-F6)/(F6))*B6</f>
-        <v>18.13166855845628</v>
+        <f t="shared" si="0"/>
+        <v>18131.66855845628</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="3"/>
-        <v>10.576806659099498</v>
+        <f t="shared" si="1"/>
+        <v>10576.806659099499</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="4"/>
-        <v>14.35423760877789</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14354.23760877789</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B7</f>
         <v>Ro-ro Cargo Ships</v>
@@ -2991,23 +2980,19 @@
         <v>0.35</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="6"/>
-        <v>19.811409395973151</v>
+        <f t="shared" si="0"/>
+        <v>19811.409395973151</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="3"/>
-        <v>12.26420581655481</v>
+        <f t="shared" si="1"/>
+        <v>12264.20581655481</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="4"/>
-        <v>16.037807606263982</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16037.807606263981</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B8</f>
         <v>Tugs</v>
@@ -3031,23 +3016,19 @@
         <v>0.5</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="6"/>
-        <v>7.3469557195571991</v>
+        <f t="shared" si="0"/>
+        <v>7346.9557195571988</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="3"/>
-        <v>4.8979704797048003</v>
+        <f t="shared" si="1"/>
+        <v>4897.9704797048007</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="4"/>
-        <v>6.1224630996310001</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6122.4630996309997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B9</f>
         <v>Vehicles Carriers</v>
@@ -3071,23 +3052,19 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="6"/>
-        <v>48.626876218323545</v>
+        <f t="shared" si="0"/>
+        <v>48626.876218323545</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="3"/>
-        <v>25.743640350877172</v>
+        <f t="shared" si="1"/>
+        <v>25743.640350877173</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="4"/>
-        <v>37.185258284600359</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37185.258284600357</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B10</f>
         <v>Reefers</v>
@@ -3111,23 +3088,19 @@
         <v>0.35</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="6"/>
-        <v>20.412284482758601</v>
+        <f t="shared" si="0"/>
+        <v>20412.284482758601</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="3"/>
-        <v>12.636176108374373</v>
+        <f t="shared" si="1"/>
+        <v>12636.176108374373</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="4"/>
-        <v>16.524230295566486</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16524.230295566485</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B11</f>
         <v>Yachts</v>
@@ -3151,23 +3124,19 @@
         <v>0.3</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="6"/>
-        <v>30.702549800796749</v>
+        <f t="shared" si="0"/>
+        <v>30702.549800796751</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="3"/>
-        <v>7.959920318725084</v>
+        <f t="shared" si="1"/>
+        <v>7959.9203187250841</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="4"/>
-        <v>19.331235059760917</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19331.235059760918</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B12</f>
         <v>Sailing Vessels</v>
@@ -3191,23 +3160,19 @@
         <v>0.3</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="6"/>
-        <v>40.402173913043406</v>
+        <f t="shared" si="0"/>
+        <v>40402.173913043407</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="3"/>
-        <v>10.474637681159402</v>
+        <f t="shared" si="1"/>
+        <v>10474.637681159402</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="4"/>
-        <v>25.438405797101403</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25438.405797101404</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B13</f>
         <v>Heavy Load Carriers</v>
@@ -3231,23 +3196,19 @@
         <v>0.45</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="6"/>
-        <v>11.60834879406308</v>
+        <f t="shared" si="0"/>
+        <v>11608.34879406308</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="3"/>
-        <v>7.6396825396825392</v>
+        <f t="shared" si="1"/>
+        <v>7639.6825396825388</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="4"/>
-        <v>9.6240156668728094</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9624.0156668728087</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B14</f>
         <v>Wood Chips Carriers</v>
@@ -3271,23 +3232,19 @@
         <v>0.4</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="6"/>
-        <v>21.442452830188671</v>
+        <f t="shared" si="0"/>
+        <v>21442.452830188671</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="3"/>
-        <v>13.784433962264144</v>
+        <f t="shared" si="1"/>
+        <v>13784.433962264144</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="4"/>
-        <v>17.613443396226408</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17613.443396226408</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B15</f>
         <v>Livestock Carriers</v>
@@ -3311,23 +3268,19 @@
         <v>0.35</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="6"/>
-        <v>17.748333333333331</v>
+        <f t="shared" si="0"/>
+        <v>17748.333333333332</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="3"/>
-        <v>10.987063492063493</v>
+        <f t="shared" si="1"/>
+        <v>10987.063492063493</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="4"/>
-        <v>14.367698412698413</v>
-      </c>
-      <c r="K15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14367.698412698413</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B16</f>
         <v>Fire Fighting Vessels</v>
@@ -3351,23 +3304,19 @@
         <v>0.4</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="6"/>
-        <v>11.73161512027491</v>
+        <f t="shared" si="0"/>
+        <v>11731.61512027491</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="3"/>
-        <v>7.5417525773195839</v>
+        <f t="shared" si="1"/>
+        <v>7541.7525773195839</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="4"/>
-        <v>9.6366838487972473</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9636.6838487972473</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B17</f>
         <v>Patrol Vessels</v>
@@ -3391,23 +3340,19 @@
         <v>0.4</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="6"/>
-        <v>8.6962962962962802</v>
+        <f t="shared" si="0"/>
+        <v>8696.2962962962811</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="3"/>
-        <v>5.5904761904761795</v>
+        <f t="shared" si="1"/>
+        <v>5590.4761904761799</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="4"/>
-        <v>7.1433862433862299</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="1"/>
-        <v>7143.3862433862296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>7143.3862433862305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B18</f>
         <v>Platforms</v>
@@ -3431,23 +3376,19 @@
         <v>0.4</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="6"/>
-        <v>25.394918699186867</v>
+        <f t="shared" si="0"/>
+        <v>25394.918699186866</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="3"/>
-        <v>16.325304878048698</v>
+        <f t="shared" si="1"/>
+        <v>16325.304878048697</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="4"/>
-        <v>20.860111788617782</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20860.111788617782</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B19</f>
         <v>Standby Safety Vessels</v>
@@ -3471,23 +3412,19 @@
         <v>0.4</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="6"/>
-        <v>11.511538461538455</v>
+        <f t="shared" si="0"/>
+        <v>11511.538461538456</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="3"/>
-        <v>7.400274725274719</v>
+        <f t="shared" si="1"/>
+        <v>7400.2747252747185</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="4"/>
-        <v>9.4559065934065867</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9455.9065934065875</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B20</f>
         <v>Combat Vessels</v>
@@ -3511,23 +3448,19 @@
         <v>0.35</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>24000</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="3"/>
-        <v>14.857142857142859</v>
+        <f t="shared" si="1"/>
+        <v>14857.142857142859</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="4"/>
-        <v>19.428571428571431</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="1"/>
-        <v>19428.571428571431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>19428.571428571428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B21</f>
         <v>Training Ships</v>
@@ -3551,23 +3484,19 @@
         <v>0.35</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="6"/>
-        <v>21.135135135135119</v>
+        <f t="shared" si="0"/>
+        <v>21135.135135135119</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="3"/>
-        <v>9.8127413127413075</v>
+        <f t="shared" si="1"/>
+        <v>9812.7413127413074</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="4"/>
-        <v>15.473938223938212</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="1"/>
-        <v>15473.938223938212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>15473.938223938214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B22</f>
         <v>Icebreakers</v>
@@ -3591,23 +3520,19 @@
         <v>0.5</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="6"/>
-        <v>13.85276967930028</v>
+        <f t="shared" si="0"/>
+        <v>13852.76967930028</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="3"/>
-        <v>7.4591836734693802</v>
+        <f t="shared" si="1"/>
+        <v>7459.1836734693798</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="4"/>
-        <v>10.65597667638483</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10655.976676384829</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B23</f>
         <v>Replenishment Vessels</v>
@@ -3631,23 +3556,19 @@
         <v>0.4</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="6"/>
-        <v>20.376754385964901</v>
+        <f t="shared" si="0"/>
+        <v>20376.754385964901</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="3"/>
-        <v>13.099342105263148</v>
+        <f t="shared" si="1"/>
+        <v>13099.342105263147</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="4"/>
-        <v>16.738048245614024</v>
-      </c>
-      <c r="K23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16738.048245614023</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B24</f>
         <v>Tankers</v>
@@ -3671,23 +3592,19 @@
         <v>0.4</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="6"/>
-        <v>25.317066362136735</v>
+        <f t="shared" si="0"/>
+        <v>25317.066362136735</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="3"/>
-        <v>16.275256947087897</v>
+        <f t="shared" si="1"/>
+        <v>16275.256947087897</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="4"/>
-        <v>20.796161654612316</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20796.161654612315</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B25</f>
         <v>Fishing Vessels</v>
@@ -3711,23 +3628,19 @@
         <v>0.4</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="6"/>
-        <v>17.298607038123151</v>
+        <f t="shared" si="0"/>
+        <v>17298.607038123151</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="3"/>
-        <v>8.6493035190615739</v>
+        <f t="shared" si="1"/>
+        <v>8649.3035190615738</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="4"/>
-        <v>12.973955278592364</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" si="1"/>
-        <v>12973.955278592364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>12973.955278592362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B26</f>
         <v>Supply Vessels</v>
@@ -3751,23 +3664,19 @@
         <v>0.4</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="6"/>
-        <v>12.267891031527368</v>
+        <f t="shared" si="0"/>
+        <v>12267.891031527368</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="3"/>
-        <v>7.8865013774104495</v>
+        <f t="shared" si="1"/>
+        <v>7886.5013774104491</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="4"/>
-        <v>10.077196204468908</v>
-      </c>
-      <c r="K26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10077.196204468908</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B27</f>
         <v>Carrier/Floating</v>
@@ -3791,23 +3700,19 @@
         <v>0.35</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="6"/>
-        <v>41.143933054393202</v>
+        <f t="shared" si="0"/>
+        <v>41143.933054393201</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="3"/>
-        <v>25.470053795576749</v>
+        <f t="shared" si="1"/>
+        <v>25470.05379557675</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="4"/>
-        <v>33.306993424984974</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33306.993424984976</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B28</f>
         <v>Dredgers</v>
@@ -3831,28 +3736,24 @@
         <v>0.5</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="6"/>
-        <v>8.1908653846153801</v>
+        <f t="shared" si="0"/>
+        <v>8190.8653846153802</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="3"/>
-        <v>5.4605769230769203</v>
+        <f t="shared" si="1"/>
+        <v>5460.5769230769201</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="4"/>
-        <v>6.8257211538461497</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" si="1"/>
-        <v>6825.7211538461497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>6825.7211538461506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
     </row>
@@ -4825,7 +4726,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4853,442 +4754,442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="A1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="30">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>46</v>
+      <c r="B4" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="11" t="str">
         <f>'Version 1 (Number of Files)'!B$3</f>
         <v>Container Ships</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="37">
         <f>'Version 1 (Number of Files)'!C3+'Version 1 (Number of Files)'!C4 + 'Version 1 (Number of Files)'!C7 + 'Version 1 (Number of Files)'!C9 + 'Version 1 (Number of Files)'!C10 + 'Version 1 (Number of Files)'!C13 + 'Version 1 (Number of Files)'!C14 + 'Version 1 (Number of Files)'!C15 + 'Version 1 (Number of Files)'!C24 + 'Version 1 (Number of Files)'!C27</f>
         <v>105280</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="37">
         <f>'Version 1 (Number of Files)'!D3+'Version 1 (Number of Files)'!D4 + 'Version 1 (Number of Files)'!D7 + 'Version 1 (Number of Files)'!D9 + 'Version 1 (Number of Files)'!D10 + 'Version 1 (Number of Files)'!D13 + 'Version 1 (Number of Files)'!D14 + 'Version 1 (Number of Files)'!D15 + 'Version 1 (Number of Files)'!D24 + 'Version 1 (Number of Files)'!D27</f>
         <v>15329</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="37">
         <f>'Version 1 (Number of Files)'!E3+'Version 1 (Number of Files)'!E4 + 'Version 1 (Number of Files)'!E7 + 'Version 1 (Number of Files)'!E9 + 'Version 1 (Number of Files)'!E10 + 'Version 1 (Number of Files)'!E13 + 'Version 1 (Number of Files)'!E14 + 'Version 1 (Number of Files)'!E15 + 'Version 1 (Number of Files)'!E24 + 'Version 1 (Number of Files)'!E27</f>
         <v>14393</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="37">
         <f>'Version 1 (Number of Files)'!F3+'Version 1 (Number of Files)'!F4 + 'Version 1 (Number of Files)'!F7 + 'Version 1 (Number of Files)'!F9 + 'Version 1 (Number of Files)'!F10 + 'Version 1 (Number of Files)'!F13 + 'Version 1 (Number of Files)'!F14 + 'Version 1 (Number of Files)'!F15 + 'Version 1 (Number of Files)'!F24 + 'Version 1 (Number of Files)'!F27</f>
         <v>135002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$4</f>
         <v>Bulk Carriers</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$7</f>
         <v>Ro-ro Cargo Ships</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$9</f>
         <v>Vehicles Carriers</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$10</f>
         <v>Reefers</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B13</f>
         <v>Heavy Load Carriers</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$14</f>
         <v>Wood Chips Carriers</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$15</f>
         <v>Livestock Carriers</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$24</f>
         <v>Tankers</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="13" t="str">
         <f>'Version 1 (Number of Files)'!B$27</f>
         <v>Carrier/Floating</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="A14" s="30">
         <v>1</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>47</v>
+      <c r="B14" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B5</f>
         <v>Passengers Ships</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="30">
         <f>'Version 1 (Number of Files)'!C5 + 'Version 1 (Number of Files)'!C6</f>
         <v>17140</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="30">
         <f>'Version 1 (Number of Files)'!D5 + 'Version 1 (Number of Files)'!D6</f>
         <v>2520</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="30">
         <f>'Version 1 (Number of Files)'!E5 + 'Version 1 (Number of Files)'!E6</f>
         <v>2327</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="30">
         <f>'Version 1 (Number of Files)'!F5 + 'Version 1 (Number of Files)'!F6</f>
         <v>21987</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B6</f>
         <v>Ro-ro Passenger Ships</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="47">
+      <c r="A16" s="30">
         <v>2</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>48</v>
+      <c r="B16" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B8</f>
         <v>Tugs</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="30">
         <f>'Version 1 (Number of Files)'!C8 + 'Version 1 (Number of Files)'!C16 + 'Version 1 (Number of Files)'!C19 + 'Version 1 (Number of Files)'!C23 + 'Version 1 (Number of Files)'!C26 + 'Version 1 (Number of Files)'!C28 + 'Version 1 (Number of Files)'!C22</f>
         <v>34509</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="30">
         <f>'Version 1 (Number of Files)'!D8 + 'Version 1 (Number of Files)'!D16 + 'Version 1 (Number of Files)'!D19 + 'Version 1 (Number of Files)'!D23 + 'Version 1 (Number of Files)'!D26 + 'Version 1 (Number of Files)'!D28 + 'Version 1 (Number of Files)'!D22</f>
         <v>5070</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="30">
         <f>'Version 1 (Number of Files)'!E8 + 'Version 1 (Number of Files)'!E16 + 'Version 1 (Number of Files)'!E19 + 'Version 1 (Number of Files)'!E23 + 'Version 1 (Number of Files)'!E26 + 'Version 1 (Number of Files)'!E28 + 'Version 1 (Number of Files)'!E22</f>
         <v>4361</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="30">
         <f>'Version 1 (Number of Files)'!F8 + 'Version 1 (Number of Files)'!F16 + 'Version 1 (Number of Files)'!F19 + 'Version 1 (Number of Files)'!F23 + 'Version 1 (Number of Files)'!F26 + 'Version 1 (Number of Files)'!F28 + 'Version 1 (Number of Files)'!F22</f>
         <v>43940</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B16</f>
         <v>Fire Fighting Vessels</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B19</f>
         <v>Standby Safety Vessels</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B23</f>
         <v>Replenishment Vessels</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B26</f>
         <v>Supply Vessels</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B22</f>
         <v>Icebreakers</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B28</f>
         <v>Dredgers</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
+      <c r="A23" s="30">
         <v>3</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>49</v>
+      <c r="B23" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="C23" s="11" t="str">
         <f>'Version 1 (Number of Files)'!B11</f>
         <v>Yachts</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="30">
         <f>'Version 1 (Number of Files)'!C11 + 'Version 1 (Number of Files)'!C12</f>
         <v>7259</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="30">
         <f>'Version 1 (Number of Files)'!D11 + 'Version 1 (Number of Files)'!D12</f>
         <v>1106</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="30">
         <f>'Version 1 (Number of Files)'!E11 + 'Version 1 (Number of Files)'!E12</f>
         <v>910</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="30">
         <f>'Version 1 (Number of Files)'!F11 + 'Version 1 (Number of Files)'!F12</f>
         <v>9275</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B12</f>
         <v>Sailing Vessels</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47">
+      <c r="A25" s="30">
         <v>4</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>50</v>
+      <c r="B25" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="C25" s="11" t="str">
         <f>'Version 1 (Number of Files)'!B17</f>
         <v>Patrol Vessels</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="30">
         <f>'Version 1 (Number of Files)'!C17+'Version 1 (Number of Files)'!C20</f>
         <v>1550</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="30">
         <f>'Version 1 (Number of Files)'!D17+'Version 1 (Number of Files)'!D20</f>
         <v>220</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="30">
         <f>'Version 1 (Number of Files)'!E17+'Version 1 (Number of Files)'!E20</f>
         <v>187</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="30">
         <f>'Version 1 (Number of Files)'!F17+'Version 1 (Number of Files)'!F20</f>
         <v>1957</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="13" t="str">
         <f>'Version 1 (Number of Files)'!B20</f>
         <v>Combat Vessels</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47">
+      <c r="A27" s="30">
         <v>5</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="53" t="str">
+      <c r="B27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="33" t="str">
         <f>'Version 1 (Number of Files)'!B21</f>
         <v>Training Ships</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="30">
         <f>'Version 1 (Number of Files)'!C21</f>
         <v>712</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="30">
         <f>'Version 1 (Number of Files)'!D21</f>
         <v>107</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="30">
         <f>'Version 1 (Number of Files)'!E21</f>
         <v>81</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="30">
         <f>'Version 1 (Number of Files)'!F21</f>
         <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
@@ -6331,6 +6232,34 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="A14:A15"/>
@@ -6347,34 +6276,6 @@
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F4:F13"/>
-    <mergeCell ref="G4:G13"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6383,10 +6284,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6394,517 +6295,798 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="29" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="10" t="str">
+        <f>'Version 1 (AD)'!A2</f>
+        <v>Category</v>
+      </c>
+      <c r="D3" s="60" t="str">
+        <f>'Version 1 (AD)'!H2</f>
+        <v>Max AD (mm)</v>
+      </c>
+      <c r="E3" s="60" t="str">
+        <f>'Version 1 (AD)'!I2</f>
+        <v>Min AD (mm)</v>
+      </c>
+      <c r="F3" s="61" t="str">
+        <f>'Version 1 (AD)'!J2</f>
+        <v>MAD (mm)</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>0</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
-        <v>0</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B$3</f>
         <v>Container Ships</v>
       </c>
-      <c r="D4" s="21">
-        <f>'Version 1 (AD)'!K3</f>
+      <c r="D4" s="63">
+        <f>'Version 1 (AD)'!H3</f>
+        <v>33361.149193548299</v>
+      </c>
+      <c r="E4" s="63">
+        <f>'Version 1 (AD)'!I3</f>
+        <v>20652.139976958475</v>
+      </c>
+      <c r="F4" s="63">
+        <f>'Version 1 (AD)'!J3</f>
         <v>27006.644585253387</v>
       </c>
-      <c r="E4" s="58">
+      <c r="G4" s="65">
         <f>AVERAGE(D4:D13)</f>
-        <v>20851.154593169027</v>
-      </c>
-      <c r="F4" s="58">
-        <f>E4/1000</f>
-        <v>20.851154593169028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
+        <v>23175.717002231868</v>
+      </c>
+      <c r="H4" s="65">
+        <f>AVERAGE(E4:E13)</f>
+        <v>14493.04418803195</v>
+      </c>
+      <c r="I4" s="43">
+        <f>((G4+H4)/2)</f>
+        <v>18834.380595131908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$4</f>
         <v>Bulk Carriers</v>
       </c>
-      <c r="D5" s="22">
-        <f>'Version 1 (AD)'!K4</f>
+      <c r="D5" s="62">
+        <f>'Version 1 (AD)'!H4</f>
+        <v>22780.524017467254</v>
+      </c>
+      <c r="E5" s="62">
+        <f>'Version 1 (AD)'!I4</f>
+        <v>14644.622582657519</v>
+      </c>
+      <c r="F5" s="62">
+        <f>'Version 1 (AD)'!J4</f>
         <v>18712.573300062388</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="56"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$7</f>
         <v>Ro-ro Cargo Ships</v>
       </c>
-      <c r="D6" s="22">
-        <f>'Version 1 (AD)'!K5</f>
-        <v>16876.079478054544</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="56"/>
+      <c r="D6" s="62">
+        <f>'Version 1 (AD)'!H7</f>
+        <v>19811.409395973151</v>
+      </c>
+      <c r="E6" s="62">
+        <f>'Version 1 (AD)'!I7</f>
+        <v>12264.20581655481</v>
+      </c>
+      <c r="F6" s="62">
+        <f>'Version 1 (AD)'!J7</f>
+        <v>16037.807606263981</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$9</f>
         <v>Vehicles Carriers</v>
       </c>
-      <c r="D7" s="22">
-        <f>'Version 1 (AD)'!K9</f>
-        <v>37185.258284600357</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="56"/>
+      <c r="D7" s="62">
+        <f>'Version 1 (AD)'!H6</f>
+        <v>18131.66855845628</v>
+      </c>
+      <c r="E7" s="62">
+        <f>'Version 1 (AD)'!I6</f>
+        <v>10576.806659099499</v>
+      </c>
+      <c r="F7" s="62">
+        <f>'Version 1 (AD)'!J6</f>
+        <v>14354.23760877789</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$10</f>
         <v>Reefers</v>
       </c>
-      <c r="D8" s="22">
-        <f>'Version 1 (AD)'!K10</f>
+      <c r="D8" s="62">
+        <f>'Version 1 (AD)'!H10</f>
+        <v>20412.284482758601</v>
+      </c>
+      <c r="E8" s="62">
+        <f>'Version 1 (AD)'!I10</f>
+        <v>12636.176108374373</v>
+      </c>
+      <c r="F8" s="62">
+        <f>'Version 1 (AD)'!J10</f>
         <v>16524.230295566485</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="56"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B13</f>
         <v>Heavy Load Carriers</v>
       </c>
-      <c r="D9" s="22">
-        <f>'Version 1 (AD)'!K8</f>
-        <v>6122.4630996309997</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="56"/>
+      <c r="D9" s="62">
+        <f>'Version 1 (AD)'!H13</f>
+        <v>11608.34879406308</v>
+      </c>
+      <c r="E9" s="62">
+        <f>'Version 1 (AD)'!I13</f>
+        <v>7639.6825396825388</v>
+      </c>
+      <c r="F9" s="62">
+        <f>'Version 1 (AD)'!J13</f>
+        <v>9624.0156668728087</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$14</f>
         <v>Wood Chips Carriers</v>
       </c>
-      <c r="D10" s="22">
-        <f>'Version 1 (AD)'!K14</f>
+      <c r="D10" s="62">
+        <f>'Version 1 (AD)'!H14</f>
+        <v>21442.452830188671</v>
+      </c>
+      <c r="E10" s="62">
+        <f>'Version 1 (AD)'!I14</f>
+        <v>13784.433962264144</v>
+      </c>
+      <c r="F10" s="62">
+        <f>'Version 1 (AD)'!J14</f>
         <v>17613.443396226408</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="56"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$15</f>
         <v>Livestock Carriers</v>
       </c>
-      <c r="D11" s="22">
-        <f>'Version 1 (AD)'!K15</f>
+      <c r="D11" s="62">
+        <f>'Version 1 (AD)'!H15</f>
+        <v>17748.333333333332</v>
+      </c>
+      <c r="E11" s="62">
+        <f>'Version 1 (AD)'!I15</f>
+        <v>10987.063492063493</v>
+      </c>
+      <c r="F11" s="62">
+        <f>'Version 1 (AD)'!J15</f>
         <v>14367.698412698413</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="56"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$24</f>
         <v>Tankers</v>
       </c>
-      <c r="D12" s="22">
-        <f>'Version 1 (AD)'!K24</f>
+      <c r="D12" s="62">
+        <f>'Version 1 (AD)'!H24</f>
+        <v>25317.066362136735</v>
+      </c>
+      <c r="E12" s="62">
+        <f>'Version 1 (AD)'!I24</f>
+        <v>16275.256947087897</v>
+      </c>
+      <c r="F12" s="62">
+        <f>'Version 1 (AD)'!J24</f>
         <v>20796.161654612315</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="43"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B$27</f>
         <v>Carrier/Floating</v>
       </c>
-      <c r="D13" s="22">
-        <f>'Version 1 (AD)'!K27</f>
+      <c r="D13" s="62">
+        <f>'Version 1 (AD)'!H27</f>
+        <v>41143.933054393201</v>
+      </c>
+      <c r="E13" s="62">
+        <f>'Version 1 (AD)'!I27</f>
+        <v>25470.05379557675</v>
+      </c>
+      <c r="F13" s="62">
+        <f>'Version 1 (AD)'!J27</f>
         <v>33306.993424984976</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>1</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>54</v>
+      <c r="B14" s="50" t="s">
+        <v>50</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B5</f>
         <v>Passengers Ships</v>
       </c>
-      <c r="D14" s="21">
-        <f>'Version 1 (AD)'!K5</f>
-        <v>16876.079478054544</v>
-      </c>
-      <c r="E14" s="58">
+      <c r="D14" s="63">
+        <f>'Version 1 (AD)'!H5</f>
+        <v>21317.153024911</v>
+      </c>
+      <c r="E14" s="63">
+        <f>'Version 1 (AD)'!I5</f>
+        <v>12435.005931198084</v>
+      </c>
+      <c r="F14" s="63">
+        <f>'Version 1 (AD)'!J5</f>
+        <v>16876.07947805454</v>
+      </c>
+      <c r="G14" s="65">
         <f>AVERAGE(D14:D15)</f>
-        <v>15615.158543416217</v>
-      </c>
-      <c r="F14" s="58">
-        <f>E14/1000</f>
-        <v>15.615158543416218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="57"/>
+        <v>19724.41079168364</v>
+      </c>
+      <c r="H14" s="65">
+        <f>AVERAGE(E14:E15)</f>
+        <v>11505.90629514879</v>
+      </c>
+      <c r="I14" s="43">
+        <f>((G14+H14)/2)</f>
+        <v>15615.158543416215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B6</f>
         <v>Ro-ro Passenger Ships</v>
       </c>
-      <c r="D15" s="23">
-        <f>'Version 1 (AD)'!K6</f>
+      <c r="D15" s="62">
+        <f>'Version 1 (AD)'!H6</f>
+        <v>18131.66855845628</v>
+      </c>
+      <c r="E15" s="62">
+        <f>'Version 1 (AD)'!I6</f>
+        <v>10576.806659099499</v>
+      </c>
+      <c r="F15" s="62">
+        <f>'Version 1 (AD)'!J6</f>
         <v>14354.23760877789</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
         <v>2</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>48</v>
+      <c r="B16" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B8</f>
         <v>Tugs</v>
       </c>
-      <c r="D16" s="22">
-        <f>'Version 1 (AD)'!K8</f>
+      <c r="D16" s="63">
+        <f>'Version 1 (AD)'!H8</f>
+        <v>7346.9557195571988</v>
+      </c>
+      <c r="E16" s="63">
+        <f>'Version 1 (AD)'!I8</f>
+        <v>4897.9704797048007</v>
+      </c>
+      <c r="F16" s="63">
+        <f>'Version 1 (AD)'!J8</f>
         <v>6122.4630996309997</v>
       </c>
-      <c r="E16" s="58">
+      <c r="G16" s="65">
         <f>AVERAGE(D16:D22)</f>
+        <v>12182.627111825499</v>
+      </c>
+      <c r="H16" s="65">
+        <f>AVERAGE(E16:E22)</f>
+        <v>7677.9431230741438</v>
+      </c>
+      <c r="I16" s="43">
+        <f>((G16+H16)/2)</f>
         <v>9930.285117449821</v>
       </c>
-      <c r="F16" s="58">
-        <f>E16/1000</f>
-        <v>9.9302851174498201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="56"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B16</f>
         <v>Fire Fighting Vessels</v>
       </c>
-      <c r="D17" s="22">
-        <f>'Version 1 (AD)'!K16</f>
+      <c r="D17" s="62">
+        <f>'Version 1 (AD)'!H16</f>
+        <v>11731.61512027491</v>
+      </c>
+      <c r="E17" s="62">
+        <f>'Version 1 (AD)'!I16</f>
+        <v>7541.7525773195839</v>
+      </c>
+      <c r="F17" s="62">
+        <f>'Version 1 (AD)'!J16</f>
         <v>9636.6838487972473</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="56"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B19</f>
         <v>Standby Safety Vessels</v>
       </c>
-      <c r="D18" s="22">
-        <f>'Version 1 (AD)'!K19</f>
+      <c r="D18" s="62">
+        <f>'Version 1 (AD)'!H19</f>
+        <v>11511.538461538456</v>
+      </c>
+      <c r="E18" s="62">
+        <f>'Version 1 (AD)'!I19</f>
+        <v>7400.2747252747185</v>
+      </c>
+      <c r="F18" s="62">
+        <f>'Version 1 (AD)'!J19</f>
         <v>9455.9065934065875</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="56"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B23</f>
         <v>Replenishment Vessels</v>
       </c>
-      <c r="D19" s="22">
-        <f>'Version 1 (AD)'!K23</f>
+      <c r="D19" s="62">
+        <f>'Version 1 (AD)'!H23</f>
+        <v>20376.754385964901</v>
+      </c>
+      <c r="E19" s="62">
+        <f>'Version 1 (AD)'!I23</f>
+        <v>13099.342105263147</v>
+      </c>
+      <c r="F19" s="62">
+        <f>'Version 1 (AD)'!J23</f>
         <v>16738.048245614023</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="56"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B26</f>
         <v>Supply Vessels</v>
       </c>
-      <c r="D20" s="22">
-        <f>'Version 1 (AD)'!K26</f>
+      <c r="D20" s="62">
+        <f>'Version 1 (AD)'!H26</f>
+        <v>12267.891031527368</v>
+      </c>
+      <c r="E20" s="62">
+        <f>'Version 1 (AD)'!I26</f>
+        <v>7886.5013774104491</v>
+      </c>
+      <c r="F20" s="62">
+        <f>'Version 1 (AD)'!J26</f>
         <v>10077.196204468908</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="56"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B28</f>
         <v>Dredgers</v>
       </c>
-      <c r="D21" s="22">
-        <f>'Version 1 (AD)'!K28</f>
-        <v>6825.7211538461497</v>
-      </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="57"/>
+      <c r="D21" s="62">
+        <f>'Version 1 (AD)'!H28</f>
+        <v>8190.8653846153802</v>
+      </c>
+      <c r="E21" s="62">
+        <f>'Version 1 (AD)'!I28</f>
+        <v>5460.5769230769201</v>
+      </c>
+      <c r="F21" s="62">
+        <f>'Version 1 (AD)'!J28</f>
+        <v>6825.7211538461506</v>
+      </c>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B22</f>
         <v>Icebreakers</v>
       </c>
-      <c r="D22" s="23">
-        <f>'Version 1 (AD)'!K22</f>
+      <c r="D22" s="62">
+        <f>'Version 1 (AD)'!H22</f>
+        <v>13852.76967930028</v>
+      </c>
+      <c r="E22" s="62">
+        <f>'Version 1 (AD)'!I22</f>
+        <v>7459.1836734693798</v>
+      </c>
+      <c r="F22" s="62">
+        <f>'Version 1 (AD)'!J22</f>
         <v>10655.976676384829</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
         <v>3</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>49</v>
+      <c r="B23" s="50" t="s">
+        <v>46</v>
       </c>
       <c r="C23" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B11</f>
         <v>Yachts</v>
       </c>
-      <c r="D23" s="22">
-        <f>'Version 1 (AD)'!K11</f>
+      <c r="D23" s="63">
+        <f>'Version 1 (AD)'!H11</f>
+        <v>30702.549800796751</v>
+      </c>
+      <c r="E23" s="63">
+        <f>'Version 1 (AD)'!I11</f>
+        <v>7959.9203187250841</v>
+      </c>
+      <c r="F23" s="63">
+        <f>'Version 1 (AD)'!J11</f>
         <v>19331.235059760918</v>
       </c>
-      <c r="E23" s="58">
+      <c r="G23" s="65">
         <f>AVERAGE(D23:D24)</f>
-        <v>22384.820428431161</v>
-      </c>
-      <c r="F23" s="58">
-        <f>E23/1000</f>
-        <v>22.384820428431162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="57"/>
+        <v>35552.361856920077</v>
+      </c>
+      <c r="H23" s="65">
+        <f>AVERAGE(E23:E24)</f>
+        <v>9217.2789999422421</v>
+      </c>
+      <c r="I23" s="43">
+        <f>((G23+H23)/2)</f>
+        <v>22384.820428431158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B12</f>
         <v>Sailing Vessels</v>
       </c>
-      <c r="D24" s="23">
-        <f>'Version 1 (AD)'!K12</f>
+      <c r="D24" s="62">
+        <f>'Version 1 (AD)'!H12</f>
+        <v>40402.173913043407</v>
+      </c>
+      <c r="E24" s="62">
+        <f>'Version 1 (AD)'!I12</f>
+        <v>10474.637681159402</v>
+      </c>
+      <c r="F24" s="62">
+        <f>'Version 1 (AD)'!J12</f>
         <v>25438.405797101404</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="44"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
         <v>4</v>
       </c>
-      <c r="B25" s="55" t="s">
-        <v>50</v>
+      <c r="B25" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="C25" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B17</f>
         <v>Patrol Vessels</v>
       </c>
-      <c r="D25" s="22">
-        <f>'Version 1 (AD)'!K17</f>
-        <v>7143.3862433862296</v>
-      </c>
-      <c r="E25" s="58">
+      <c r="D25" s="63">
+        <f>'Version 1 (AD)'!H17</f>
+        <v>8696.2962962962811</v>
+      </c>
+      <c r="E25" s="63">
+        <f>'Version 1 (AD)'!I17</f>
+        <v>5590.4761904761799</v>
+      </c>
+      <c r="F25" s="63">
+        <f>'Version 1 (AD)'!J17</f>
+        <v>7143.3862433862305</v>
+      </c>
+      <c r="G25" s="65">
         <f>AVERAGE(D25:D26)</f>
-        <v>13285.978835978831</v>
-      </c>
-      <c r="F25" s="58">
-        <f>E25/1000</f>
-        <v>13.285978835978831</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="57"/>
+        <v>16348.148148148141</v>
+      </c>
+      <c r="H25" s="65">
+        <f>AVERAGE(E25:E26)</f>
+        <v>10223.809523809519</v>
+      </c>
+      <c r="I25" s="43">
+        <f>((G25+H25)/2)</f>
+        <v>13285.978835978829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B20</f>
         <v>Combat Vessels</v>
       </c>
-      <c r="D26" s="23">
-        <f>'Version 1 (AD)'!K20</f>
-        <v>19428.571428571431</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="D26" s="62">
+        <f>'Version 1 (AD)'!H20</f>
+        <v>24000</v>
+      </c>
+      <c r="E26" s="62">
+        <f>'Version 1 (AD)'!I20</f>
+        <v>14857.142857142859</v>
+      </c>
+      <c r="F26" s="62">
+        <f>'Version 1 (AD)'!J20</f>
+        <v>19428.571428571428</v>
+      </c>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
         <v>5</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>51</v>
+      <c r="B27" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="C27" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B21</f>
         <v>Training Ships</v>
       </c>
-      <c r="D27" s="23">
-        <f>'Version 1 (AD)'!K21</f>
-        <v>15473.938223938212</v>
-      </c>
-      <c r="E27" s="26">
-        <f t="shared" ref="E27:E29" si="0">D27</f>
-        <v>15473.938223938212</v>
-      </c>
-      <c r="F27" s="26">
-        <f t="shared" ref="F27:F29" si="1">E27/1000</f>
-        <v>15.473938223938212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="D27" s="63">
+        <f>'Version 1 (AD)'!H21</f>
+        <v>21135.135135135119</v>
+      </c>
+      <c r="E27" s="63">
+        <f>'Version 1 (AD)'!I21</f>
+        <v>9812.7413127413074</v>
+      </c>
+      <c r="F27" s="63">
+        <f>'Version 1 (AD)'!J21</f>
+        <v>15473.938223938214</v>
+      </c>
+      <c r="G27" s="68">
+        <f>D27</f>
+        <v>21135.135135135119</v>
+      </c>
+      <c r="H27" s="68">
+        <f>E27</f>
+        <v>9812.7413127413074</v>
+      </c>
+      <c r="I27" s="22">
+        <f>((G27+H27)/2)</f>
+        <v>15473.938223938214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
         <v>6</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B25</f>
         <v>Fishing Vessels</v>
       </c>
-      <c r="D28" s="23">
-        <f>'Version 1 (AD)'!K25</f>
-        <v>12973.955278592364</v>
-      </c>
-      <c r="E28" s="26">
-        <f t="shared" si="0"/>
-        <v>12973.955278592364</v>
-      </c>
-      <c r="F28" s="26">
-        <f t="shared" si="1"/>
-        <v>12.973955278592364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="D28" s="63">
+        <f>'Version 1 (AD)'!H25</f>
+        <v>17298.607038123151</v>
+      </c>
+      <c r="E28" s="63">
+        <f>'Version 1 (AD)'!I25</f>
+        <v>8649.3035190615738</v>
+      </c>
+      <c r="F28" s="63">
+        <f>'Version 1 (AD)'!J25</f>
+        <v>12973.955278592362</v>
+      </c>
+      <c r="G28" s="68">
+        <f>D28</f>
+        <v>17298.607038123151</v>
+      </c>
+      <c r="H28" s="68">
+        <f>E28</f>
+        <v>8649.3035190615738</v>
+      </c>
+      <c r="I28" s="22">
+        <f>((G28+H28)/2)</f>
+        <v>12973.955278592362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
         <v>7</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B18</f>
         <v>Platforms</v>
       </c>
-      <c r="D29" s="23">
-        <f>'Version 1 (AD)'!K18</f>
+      <c r="D29" s="64">
+        <f>'Version 1 (AD)'!H18</f>
+        <v>25394.918699186866</v>
+      </c>
+      <c r="E29" s="64">
+        <f>'Version 1 (AD)'!I18</f>
+        <v>16325.304878048697</v>
+      </c>
+      <c r="F29" s="64">
+        <f>'Version 1 (AD)'!J18</f>
         <v>20860.111788617782</v>
       </c>
-      <c r="E29" s="29">
-        <f t="shared" si="0"/>
+      <c r="G29" s="25">
+        <f>D29</f>
+        <v>25394.918699186866</v>
+      </c>
+      <c r="H29" s="25">
+        <f>E29</f>
+        <v>16325.304878048697</v>
+      </c>
+      <c r="I29" s="25">
+        <f>((G29+H29)/2)</f>
         <v>20860.111788617782</v>
       </c>
-      <c r="F29" s="29">
-        <f t="shared" si="1"/>
-        <v>20.860111788617782</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7858,24 +8040,12 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="F4:F13"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
+  <mergeCells count="29">
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G22"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -7883,6 +8053,23 @@
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H4:H13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7910,426 +8097,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="A1" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+      <c r="A4" s="54">
         <v>0</v>
       </c>
-      <c r="B4" s="69" t="s">
-        <v>46</v>
+      <c r="B4" s="55" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="11" t="str">
         <f>'Version 1 (Number of Files)'!B$3</f>
         <v>Container Ships</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="56">
         <f>'Version 1 (Number of Files)'!C3 + 'Version 1 (Number of Files)'!C4 + 'Version 1 (Number of Files)'!C7 + 'Version 1 (Number of Files)'!C9 + 'Version 1 (Number of Files)'!C10 + 'Version 1 (Number of Files)'!C13 + 'Version 1 (Number of Files)'!C14 + 'Version 1 (Number of Files)'!C15 + 'Version 1 (Number of Files)'!C24 + 'Version 1 (Number of Files)'!C27</f>
         <v>105280</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="56">
         <f>'Version 1 (Number of Files)'!D3 + 'Version 1 (Number of Files)'!D4 + 'Version 1 (Number of Files)'!D7 + 'Version 1 (Number of Files)'!D9 + 'Version 1 (Number of Files)'!D10 + 'Version 1 (Number of Files)'!D13 + 'Version 1 (Number of Files)'!D14 + 'Version 1 (Number of Files)'!D15 + 'Version 1 (Number of Files)'!D24 + 'Version 1 (Number of Files)'!D27</f>
         <v>15329</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="56">
         <f>'Version 1 (Number of Files)'!E3 + 'Version 1 (Number of Files)'!E4 + 'Version 1 (Number of Files)'!E7 + 'Version 1 (Number of Files)'!E9 + 'Version 1 (Number of Files)'!E10 + 'Version 1 (Number of Files)'!E13 + 'Version 1 (Number of Files)'!E14 + 'Version 1 (Number of Files)'!E15 + 'Version 1 (Number of Files)'!E24 + 'Version 1 (Number of Files)'!E27</f>
         <v>14393</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="56">
         <f>'Version 1 (Number of Files)'!F3 + 'Version 1 (Number of Files)'!F4 + 'Version 1 (Number of Files)'!F7 + 'Version 1 (Number of Files)'!F9 + 'Version 1 (Number of Files)'!F10 + 'Version 1 (Number of Files)'!F13 + 'Version 1 (Number of Files)'!F14 + 'Version 1 (Number of Files)'!F15 + 'Version 1 (Number of Files)'!F24 + 'Version 1 (Number of Files)'!F27</f>
         <v>135002</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$4</f>
         <v>Bulk Carriers</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$7</f>
         <v>Ro-ro Cargo Ships</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$9</f>
         <v>Vehicles Carriers</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$10</f>
         <v>Reefers</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B13</f>
         <v>Heavy Load Carriers</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$14</f>
         <v>Wood Chips Carriers</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$15</f>
         <v>Livestock Carriers</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$24</f>
         <v>Tankers</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="13" t="str">
         <f>'Version 1 (Number of Files)'!B$27</f>
         <v>Carrier/Floating</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+      <c r="A14" s="54">
         <v>1</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B5</f>
         <v>Passengers Ships</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="54">
         <f>'Version 1 (Number of Files)'!C5 + 'Version 1 (Number of Files)'!C6 +'Version 1 (Number of Files)'!C11 + 'Version 1 (Number of Files)'!C12</f>
         <v>24399</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="54">
         <f>'Version 1 (Number of Files)'!D5 + 'Version 1 (Number of Files)'!D6 +'Version 1 (Number of Files)'!D11 + 'Version 1 (Number of Files)'!D12</f>
         <v>3626</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="54">
         <f>'Version 1 (Number of Files)'!E5 + 'Version 1 (Number of Files)'!E6 +'Version 1 (Number of Files)'!E11 + 'Version 1 (Number of Files)'!E12</f>
         <v>3237</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="54">
         <f>'Version 1 (Number of Files)'!F5 + 'Version 1 (Number of Files)'!F6 +'Version 1 (Number of Files)'!F11 + 'Version 1 (Number of Files)'!F12</f>
         <v>31262</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B6</f>
         <v>Ro-ro Passenger Ships</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B11</f>
         <v>Yachts</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13" t="str">
         <f>'Version 1 (Number of Files)'!B12</f>
         <v>Sailing Vessels</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
+      <c r="A18" s="54">
         <v>2</v>
       </c>
-      <c r="B18" s="68" t="s">
-        <v>56</v>
+      <c r="B18" s="54" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B8</f>
         <v>Tugs</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="54">
         <f>'Version 1 (Number of Files)'!C8 + 'Version 1 (Number of Files)'!C16 + 'Version 1 (Number of Files)'!C19 + 'Version 1 (Number of Files)'!C23 + 'Version 1 (Number of Files)'!C26 + 'Version 1 (Number of Files)'!C28 + 'Version 1 (Number of Files)'!C22 + 'Version 1 (Number of Files)'!C21 + 'Version 1 (Number of Files)'!C25</f>
         <v>51067</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="54">
         <f>'Version 1 (Number of Files)'!D8 + 'Version 1 (Number of Files)'!D16 + 'Version 1 (Number of Files)'!D19 + 'Version 1 (Number of Files)'!D23 + 'Version 1 (Number of Files)'!D26 + 'Version 1 (Number of Files)'!D28 + 'Version 1 (Number of Files)'!D22 + 'Version 1 (Number of Files)'!D21 + 'Version 1 (Number of Files)'!D25</f>
         <v>7560</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="54">
         <f>'Version 1 (Number of Files)'!E8 + 'Version 1 (Number of Files)'!E16 + 'Version 1 (Number of Files)'!E19 + 'Version 1 (Number of Files)'!E23 + 'Version 1 (Number of Files)'!E26 + 'Version 1 (Number of Files)'!E28 + 'Version 1 (Number of Files)'!E22 + 'Version 1 (Number of Files)'!E21 + 'Version 1 (Number of Files)'!E25</f>
         <v>6250</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="54">
         <f>'Version 1 (Number of Files)'!F8 + 'Version 1 (Number of Files)'!F16 + 'Version 1 (Number of Files)'!F19 + 'Version 1 (Number of Files)'!F23 + 'Version 1 (Number of Files)'!F26 + 'Version 1 (Number of Files)'!F28 + 'Version 1 (Number of Files)'!F22 + 'Version 1 (Number of Files)'!F21 + 'Version 1 (Number of Files)'!F25</f>
         <v>64877</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B16</f>
         <v>Fire Fighting Vessels</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B19</f>
         <v>Standby Safety Vessels</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B23</f>
         <v>Replenishment Vessels</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B26</f>
         <v>Supply Vessels</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B21</f>
         <v>Training Ships</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B22</f>
         <v>Icebreakers</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B28</f>
         <v>Dredgers</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68">
+      <c r="A26" s="54">
         <v>3</v>
       </c>
-      <c r="B26" s="68" t="s">
-        <v>50</v>
+      <c r="B26" s="54" t="s">
+        <v>47</v>
       </c>
       <c r="C26" s="11" t="str">
         <f>'Version 1 (Number of Files)'!B17</f>
         <v>Patrol Vessels</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="54">
         <f>'Version 1 (Number of Files)'!C$17+'Version 1 (Number of Files)'!C$20</f>
         <v>1550</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="54">
         <f>'Version 1 (Number of Files)'!D$17+'Version 1 (Number of Files)'!D$20</f>
         <v>220</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="54">
         <f>'Version 1 (Number of Files)'!E$17+'Version 1 (Number of Files)'!E$20</f>
         <v>187</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="54">
         <f>'Version 1 (Number of Files)'!F$17+'Version 1 (Number of Files)'!F$20</f>
         <v>1957</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="13" t="str">
         <f>'Version 1 (Number of Files)'!B20</f>
         <v>Combat Vessels</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="26">
         <v>4</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2" t="str">
         <f>'Version 1 (Number of Files)'!B18</f>
         <v>Platforms</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="26">
         <f>'Version 1 (Number of Files)'!C18</f>
         <v>1467</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="26">
         <f>'Version 1 (Number of Files)'!D18</f>
         <v>209</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="26">
         <f>'Version 1 (Number of Files)'!E18</f>
         <v>147</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="26">
         <f>'Version 1 (Number of Files)'!F18</f>
         <v>1823</v>
       </c>
@@ -9321,26 +9508,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F4:F13"/>
-    <mergeCell ref="G4:G13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="G18:G25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="D4:D13"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="D18:D25"/>
     <mergeCell ref="D26:D27"/>
@@ -9352,6 +9519,26 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="D4:D13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9359,11 +9546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C01F3F-0555-4C41-9E6D-8F11DE21B913}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9371,485 +9558,759 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="29" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="10" t="str">
+        <f>'Version 1 (AD)'!A2</f>
+        <v>Category</v>
+      </c>
+      <c r="D3" s="60" t="str">
+        <f>'Version 1 (AD)'!H2</f>
+        <v>Max AD (mm)</v>
+      </c>
+      <c r="E3" s="60" t="str">
+        <f>'Version 1 (AD)'!I2</f>
+        <v>Min AD (mm)</v>
+      </c>
+      <c r="F3" s="61" t="str">
+        <f>'Version 1 (AD)'!J2</f>
+        <v>MAD (mm)</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>0</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="69">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B$3</f>
         <v>Container Ships</v>
       </c>
-      <c r="D4" s="21">
-        <f>'Version 1 (AD)'!K3</f>
+      <c r="D4" s="63">
+        <f>'Version 1 (AD)'!H3</f>
+        <v>33361.149193548299</v>
+      </c>
+      <c r="E4" s="63">
+        <f>'Version 1 (AD)'!I3</f>
+        <v>20652.139976958475</v>
+      </c>
+      <c r="F4" s="63">
+        <f>'Version 1 (AD)'!J3</f>
         <v>27006.644585253387</v>
       </c>
-      <c r="E4" s="72">
+      <c r="G4" s="65">
         <f>AVERAGE(D4:D13)</f>
-        <v>20851.154593169027</v>
-      </c>
-      <c r="F4" s="71">
-        <f>E4/1000</f>
-        <v>20.851154593169028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="56"/>
+        <v>23175.717002231868</v>
+      </c>
+      <c r="H4" s="65">
+        <f>AVERAGE(E4:E13)</f>
+        <v>14493.04418803195</v>
+      </c>
+      <c r="I4" s="43">
+        <f>((G4+H4)/2)</f>
+        <v>18834.380595131908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$4</f>
         <v>Bulk Carriers</v>
       </c>
-      <c r="D5" s="22">
-        <f>'Version 1 (AD)'!K4</f>
+      <c r="D5" s="62">
+        <f>'Version 1 (AD)'!H4</f>
+        <v>22780.524017467254</v>
+      </c>
+      <c r="E5" s="62">
+        <f>'Version 1 (AD)'!I4</f>
+        <v>14644.622582657519</v>
+      </c>
+      <c r="F5" s="62">
+        <f>'Version 1 (AD)'!J4</f>
         <v>18712.573300062388</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="49"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="56"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$7</f>
         <v>Ro-ro Cargo Ships</v>
       </c>
-      <c r="D6" s="22">
-        <f>'Version 1 (AD)'!K5</f>
-        <v>16876.079478054544</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="49"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="56"/>
+      <c r="D6" s="62">
+        <f>'Version 1 (AD)'!H7</f>
+        <v>19811.409395973151</v>
+      </c>
+      <c r="E6" s="62">
+        <f>'Version 1 (AD)'!I7</f>
+        <v>12264.20581655481</v>
+      </c>
+      <c r="F6" s="62">
+        <f>'Version 1 (AD)'!J7</f>
+        <v>16037.807606263981</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$9</f>
         <v>Vehicles Carriers</v>
       </c>
-      <c r="D7" s="22">
-        <f>'Version 1 (AD)'!K9</f>
-        <v>37185.258284600357</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="56"/>
+      <c r="D7" s="62">
+        <f>'Version 1 (AD)'!H6</f>
+        <v>18131.66855845628</v>
+      </c>
+      <c r="E7" s="62">
+        <f>'Version 1 (AD)'!I6</f>
+        <v>10576.806659099499</v>
+      </c>
+      <c r="F7" s="62">
+        <f>'Version 1 (AD)'!J6</f>
+        <v>14354.23760877789</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$10</f>
         <v>Reefers</v>
       </c>
-      <c r="D8" s="22">
-        <f>'Version 1 (AD)'!K10</f>
+      <c r="D8" s="62">
+        <f>'Version 1 (AD)'!H10</f>
+        <v>20412.284482758601</v>
+      </c>
+      <c r="E8" s="62">
+        <f>'Version 1 (AD)'!I10</f>
+        <v>12636.176108374373</v>
+      </c>
+      <c r="F8" s="62">
+        <f>'Version 1 (AD)'!J10</f>
         <v>16524.230295566485</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="49"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="56"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B13</f>
         <v>Heavy Load Carriers</v>
       </c>
-      <c r="D9" s="22">
-        <f>'Version 1 (AD)'!K8</f>
-        <v>6122.4630996309997</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="49"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="56"/>
+      <c r="D9" s="62">
+        <f>'Version 1 (AD)'!H13</f>
+        <v>11608.34879406308</v>
+      </c>
+      <c r="E9" s="62">
+        <f>'Version 1 (AD)'!I13</f>
+        <v>7639.6825396825388</v>
+      </c>
+      <c r="F9" s="62">
+        <f>'Version 1 (AD)'!J13</f>
+        <v>9624.0156668728087</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$14</f>
         <v>Wood Chips Carriers</v>
       </c>
-      <c r="D10" s="22">
-        <f>'Version 1 (AD)'!K14</f>
+      <c r="D10" s="62">
+        <f>'Version 1 (AD)'!H14</f>
+        <v>21442.452830188671</v>
+      </c>
+      <c r="E10" s="62">
+        <f>'Version 1 (AD)'!I14</f>
+        <v>13784.433962264144</v>
+      </c>
+      <c r="F10" s="62">
+        <f>'Version 1 (AD)'!J14</f>
         <v>17613.443396226408</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="49"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="56"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$15</f>
         <v>Livestock Carriers</v>
       </c>
-      <c r="D11" s="22">
-        <f>'Version 1 (AD)'!K15</f>
+      <c r="D11" s="62">
+        <f>'Version 1 (AD)'!H15</f>
+        <v>17748.333333333332</v>
+      </c>
+      <c r="E11" s="62">
+        <f>'Version 1 (AD)'!I15</f>
+        <v>10987.063492063493</v>
+      </c>
+      <c r="F11" s="62">
+        <f>'Version 1 (AD)'!J15</f>
         <v>14367.698412698413</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="49"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="56"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$24</f>
         <v>Tankers</v>
       </c>
-      <c r="D12" s="22">
-        <f>'Version 1 (AD)'!K24</f>
+      <c r="D12" s="62">
+        <f>'Version 1 (AD)'!H24</f>
+        <v>25317.066362136735</v>
+      </c>
+      <c r="E12" s="62">
+        <f>'Version 1 (AD)'!I24</f>
+        <v>16275.256947087897</v>
+      </c>
+      <c r="F12" s="62">
+        <f>'Version 1 (AD)'!J24</f>
         <v>20796.161654612315</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="49"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="43"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B$27</f>
         <v>Carrier/Floating</v>
       </c>
-      <c r="D13" s="22">
-        <f>'Version 1 (AD)'!K27</f>
+      <c r="D13" s="62">
+        <f>'Version 1 (AD)'!H27</f>
+        <v>41143.933054393201</v>
+      </c>
+      <c r="E13" s="62">
+        <f>'Version 1 (AD)'!I27</f>
+        <v>25470.05379557675</v>
+      </c>
+      <c r="F13" s="62">
+        <f>'Version 1 (AD)'!J27</f>
         <v>33306.993424984976</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="48"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="73">
         <v>1</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="76" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B5</f>
         <v>Passengers Ships</v>
       </c>
-      <c r="D14" s="21">
-        <f>'Version 1 (AD)'!K5</f>
-        <v>16876.079478054544</v>
-      </c>
-      <c r="E14" s="71">
+      <c r="D14" s="63">
+        <f>'Version 1 (AD)'!H5</f>
+        <v>21317.153024911</v>
+      </c>
+      <c r="E14" s="63">
+        <f>'Version 1 (AD)'!I5</f>
+        <v>12435.005931198084</v>
+      </c>
+      <c r="F14" s="63">
+        <f>'Version 1 (AD)'!J5</f>
+        <v>16876.07947805454</v>
+      </c>
+      <c r="G14" s="65">
         <f>AVERAGE(D14:D17)</f>
+        <v>27638.386324301857</v>
+      </c>
+      <c r="H14" s="65">
+        <f>AVERAGE(E14:E17)</f>
+        <v>10361.592647545516</v>
+      </c>
+      <c r="I14" s="65">
+        <f>AVERAGE(F14:F17)</f>
         <v>18999.989485923688</v>
       </c>
-      <c r="F14" s="71">
-        <f>E14/1000</f>
-        <v>18.999989485923688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="16" t="str">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="71" t="str">
         <f>'Version 1 (Number of Files)'!B6</f>
         <v>Ro-ro Passenger Ships</v>
       </c>
-      <c r="D15" s="22">
-        <f>'Version 1 (AD)'!K6</f>
+      <c r="D15" s="62">
+        <f>'Version 1 (AD)'!H6</f>
+        <v>18131.66855845628</v>
+      </c>
+      <c r="E15" s="62">
+        <f>'Version 1 (AD)'!I6</f>
+        <v>10576.806659099499</v>
+      </c>
+      <c r="F15" s="62">
+        <f>'Version 1 (AD)'!J6</f>
         <v>14354.23760877789</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="16" t="str">
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="71" t="str">
         <f>'Version 1 (Number of Files)'!B11</f>
         <v>Yachts</v>
       </c>
-      <c r="D16" s="22">
-        <f>'Version 1 (AD)'!K11</f>
+      <c r="D16" s="62">
+        <f>'Version 1 (AD)'!H11</f>
+        <v>30702.549800796751</v>
+      </c>
+      <c r="E16" s="62">
+        <f>'Version 1 (AD)'!I11</f>
+        <v>7959.9203187250841</v>
+      </c>
+      <c r="F16" s="62">
+        <f>'Version 1 (AD)'!J11</f>
         <v>19331.235059760918</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="46"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B12</f>
         <v>Sailing Vessels</v>
       </c>
-      <c r="D17" s="23">
-        <f>'Version 1 (AD)'!K12</f>
+      <c r="D17" s="62">
+        <f>'Version 1 (AD)'!H12</f>
+        <v>40402.173913043407</v>
+      </c>
+      <c r="E17" s="62">
+        <f>'Version 1 (AD)'!I12</f>
+        <v>10474.637681159402</v>
+      </c>
+      <c r="F17" s="62">
+        <f>'Version 1 (AD)'!J12</f>
         <v>25438.405797101404</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
         <v>2</v>
       </c>
-      <c r="B18" s="70" t="s">
-        <v>56</v>
+      <c r="B18" s="79" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B8</f>
         <v>Tugs</v>
       </c>
-      <c r="D18" s="22">
-        <f>'Version 1 (AD)'!K8</f>
+      <c r="D18" s="63">
+        <f>'Version 1 (AD)'!H8</f>
+        <v>7346.9557195571988</v>
+      </c>
+      <c r="E18" s="63">
+        <f>'Version 1 (AD)'!I8</f>
+        <v>4897.9704797048007</v>
+      </c>
+      <c r="F18" s="63">
+        <f>'Version 1 (AD)'!J8</f>
         <v>6122.4630996309997</v>
       </c>
-      <c r="E18" s="71">
+      <c r="G18" s="65">
         <f>AVERAGE(D18:D26)</f>
-        <v>10884.432147186591</v>
-      </c>
-      <c r="F18" s="71">
-        <f>E18/1000</f>
-        <v>10.884432147186592</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="56"/>
+        <v>13445.556100339267</v>
+      </c>
+      <c r="H18" s="65">
+        <f>AVERAGE(E18:E26)</f>
+        <v>8460.4996995534948</v>
+      </c>
+      <c r="I18" s="43">
+        <f>((G18+H18)/2)</f>
+        <v>10953.027899946381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B16</f>
         <v>Fire Fighting Vessels</v>
       </c>
-      <c r="D19" s="22">
-        <f>'Version 1 (AD)'!K16</f>
+      <c r="D19" s="62">
+        <f>'Version 1 (AD)'!H16</f>
+        <v>11731.61512027491</v>
+      </c>
+      <c r="E19" s="62">
+        <f>'Version 1 (AD)'!I16</f>
+        <v>7541.7525773195839</v>
+      </c>
+      <c r="F19" s="62">
+        <f>'Version 1 (AD)'!J16</f>
         <v>9636.6838487972473</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="56"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B19</f>
         <v>Standby Safety Vessels</v>
       </c>
-      <c r="D20" s="22">
-        <f>'Version 1 (AD)'!K19</f>
+      <c r="D20" s="62">
+        <f>'Version 1 (AD)'!H19</f>
+        <v>11511.538461538456</v>
+      </c>
+      <c r="E20" s="62">
+        <f>'Version 1 (AD)'!I19</f>
+        <v>7400.2747252747185</v>
+      </c>
+      <c r="F20" s="62">
+        <f>'Version 1 (AD)'!J19</f>
         <v>9455.9065934065875</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="56"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B23</f>
         <v>Replenishment Vessels</v>
       </c>
-      <c r="D21" s="22">
-        <f>'Version 1 (AD)'!K23</f>
+      <c r="D21" s="62">
+        <f>'Version 1 (AD)'!H23</f>
+        <v>20376.754385964901</v>
+      </c>
+      <c r="E21" s="62">
+        <f>'Version 1 (AD)'!I23</f>
+        <v>13099.342105263147</v>
+      </c>
+      <c r="F21" s="62">
+        <f>'Version 1 (AD)'!J23</f>
         <v>16738.048245614023</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="56"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B26</f>
         <v>Supply Vessels</v>
       </c>
-      <c r="D22" s="22">
-        <f>'Version 1 (AD)'!K26</f>
+      <c r="D22" s="62">
+        <f>'Version 1 (AD)'!H26</f>
+        <v>12267.891031527368</v>
+      </c>
+      <c r="E22" s="62">
+        <f>'Version 1 (AD)'!I26</f>
+        <v>7886.5013774104491</v>
+      </c>
+      <c r="F22" s="62">
+        <f>'Version 1 (AD)'!J26</f>
         <v>10077.196204468908</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="56"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B28</f>
         <v>Dredgers</v>
       </c>
-      <c r="D23" s="22">
-        <f>'Version 1 (AD)'!K28</f>
-        <v>6825.7211538461497</v>
-      </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="57"/>
+      <c r="D23" s="62">
+        <f>'Version 1 (AD)'!H28</f>
+        <v>8190.8653846153802</v>
+      </c>
+      <c r="E23" s="62">
+        <f>'Version 1 (AD)'!I28</f>
+        <v>5460.5769230769201</v>
+      </c>
+      <c r="F23" s="62">
+        <f>'Version 1 (AD)'!J28</f>
+        <v>6825.7211538461506</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="16" t="str">
+        <f>'Version 1 (Number of Files)'!B21</f>
+        <v>Training Ships</v>
+      </c>
+      <c r="D24" s="62">
+        <f>'Version 1 (AD)'!H16</f>
+        <v>11731.61512027491</v>
+      </c>
+      <c r="E24" s="62">
+        <f>'Version 1 (AD)'!I16</f>
+        <v>7541.7525773195839</v>
+      </c>
+      <c r="F24" s="62">
+        <f>'Version 1 (AD)'!J16</f>
+        <v>9636.6838487972473</v>
+      </c>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="44"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="16" t="str">
+        <f>'Version 1 (Number of Files)'!B25</f>
+        <v>Fishing Vessels</v>
+      </c>
+      <c r="D25" s="62">
+        <f>'Version 1 (AD)'!H20</f>
+        <v>24000</v>
+      </c>
+      <c r="E25" s="62">
+        <f>'Version 1 (AD)'!I20</f>
+        <v>14857.142857142859</v>
+      </c>
+      <c r="F25" s="62">
+        <f>'Version 1 (AD)'!J20</f>
+        <v>19428.571428571428</v>
+      </c>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="44"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B22</f>
         <v>Icebreakers</v>
       </c>
-      <c r="D24" s="22">
-        <f>'Version 1 (AD)'!K22</f>
+      <c r="D26" s="62">
+        <f>'Version 1 (AD)'!H22</f>
+        <v>13852.76967930028</v>
+      </c>
+      <c r="E26" s="62">
+        <f>'Version 1 (AD)'!I22</f>
+        <v>7459.1836734693798</v>
+      </c>
+      <c r="F26" s="62">
+        <f>'Version 1 (AD)'!J22</f>
         <v>10655.976676384829</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="16" t="str">
-        <f>'Version 1 (Number of Files)'!B21</f>
-        <v>Training Ships</v>
-      </c>
-      <c r="D25" s="22">
-        <f>'Version 1 (AD)'!K21</f>
-        <v>15473.938223938212</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="15" t="str">
-        <f>'Version 1 (Number of Files)'!B25</f>
-        <v>Fishing Vessels</v>
-      </c>
-      <c r="D26" s="23">
-        <f>'Version 1 (AD)'!K25</f>
-        <v>12973.955278592364</v>
-      </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69">
-        <v>3</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>50</v>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
+        <v>4</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B17</f>
         <v>Patrol Vessels</v>
       </c>
-      <c r="D27" s="22">
-        <f>'Version 1 (AD)'!K17</f>
-        <v>7143.3862433862296</v>
-      </c>
-      <c r="E27" s="72">
+      <c r="D27" s="63">
+        <f>'Version 1 (AD)'!H17</f>
+        <v>8696.2962962962811</v>
+      </c>
+      <c r="E27" s="63">
+        <f>'Version 1 (AD)'!I17</f>
+        <v>5590.4761904761799</v>
+      </c>
+      <c r="F27" s="63">
+        <f>'Version 1 (AD)'!J17</f>
+        <v>7143.3862433862305</v>
+      </c>
+      <c r="G27" s="65">
         <f>AVERAGE(D27:D28)</f>
-        <v>13285.978835978831</v>
-      </c>
-      <c r="F27" s="72">
-        <f>E27/1000</f>
-        <v>13.285978835978831</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="57"/>
+        <v>16348.148148148141</v>
+      </c>
+      <c r="H27" s="65">
+        <f>AVERAGE(E27:E28)</f>
+        <v>10223.809523809519</v>
+      </c>
+      <c r="I27" s="43">
+        <f>((G27+H27)/2)</f>
+        <v>13285.978835978829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B20</f>
         <v>Combat Vessels</v>
       </c>
-      <c r="D28" s="23">
-        <f>'Version 1 (AD)'!K20</f>
-        <v>19428.571428571431</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
-        <v>4</v>
-      </c>
-      <c r="B29" s="36" t="s">
+      <c r="D28" s="62">
+        <f>'Version 1 (AD)'!H20</f>
+        <v>24000</v>
+      </c>
+      <c r="E28" s="62">
+        <f>'Version 1 (AD)'!I20</f>
+        <v>14857.142857142859</v>
+      </c>
+      <c r="F28" s="62">
+        <f>'Version 1 (AD)'!J20</f>
+        <v>19428.571428571428</v>
+      </c>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="44"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>5</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B18</f>
         <v>Platforms</v>
       </c>
-      <c r="D29" s="23">
-        <f>'Version 1 (AD)'!K18</f>
+      <c r="D29" s="64">
+        <f>'Version 1 (AD)'!H18</f>
+        <v>25394.918699186866</v>
+      </c>
+      <c r="E29" s="64">
+        <f>'Version 1 (AD)'!I18</f>
+        <v>16325.304878048697</v>
+      </c>
+      <c r="F29" s="64">
+        <f>'Version 1 (AD)'!J18</f>
         <v>20860.111788617782</v>
       </c>
-      <c r="E29" s="37">
+      <c r="G29" s="25">
         <f>D29</f>
+        <v>25394.918699186866</v>
+      </c>
+      <c r="H29" s="25">
+        <f>E29</f>
+        <v>16325.304878048697</v>
+      </c>
+      <c r="I29" s="25">
+        <f>((G29+H29)/2)</f>
         <v>20860.111788617782</v>
       </c>
-      <c r="F29" s="37">
-        <f>E29/1000</f>
-        <v>20.860111788617782</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="7:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10803,27 +11264,31 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F4:F13"/>
+  <mergeCells count="24">
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E26"/>
-    <mergeCell ref="F18:F26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="G18:G26"/>
+    <mergeCell ref="H18:H26"/>
+    <mergeCell ref="I18:I26"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="H4:H13"/>
+    <mergeCell ref="I4:I13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/report/dataset_versions.xlsx
+++ b/report/dataset_versions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pablo\Google Drive\Trabalho\Projetos\ship-detector-classifier\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92838B9D-8DF3-4E70-B3E6-B077C21D44CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE864225-2406-4A51-B191-84DB718CEC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19965" yWindow="0" windowWidth="18435" windowHeight="15600" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 1 (Number of Files)" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Version 3 (Average AD)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -221,7 +222,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,33 +236,46 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -737,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,75 +828,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,21 +846,106 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,22 +957,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1171,20 +1195,21 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1204,7 +1229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1212,20 +1237,24 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>21888</v>
+        <v>16002</v>
       </c>
       <c r="D3" s="2">
-        <v>3148</v>
+        <v>3429</v>
       </c>
       <c r="E3" s="2">
-        <v>3101</v>
+        <v>3428</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F28" si="0">C3+D3+E3</f>
-        <v>28137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f>C3+D3+E3</f>
+        <v>22859</v>
+      </c>
+      <c r="G3">
+        <f>$F$30 / (26 * F3)</f>
+        <v>0.30148704263932402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1233,20 +1262,24 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>31957</v>
+        <v>22611</v>
       </c>
       <c r="D4" s="2">
-        <v>4662</v>
+        <v>4844</v>
       </c>
       <c r="E4" s="2">
-        <v>4404</v>
+        <v>4845</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>41023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F28" si="0">C4+D4+E4</f>
+        <v>32300</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G28" si="1">$F$30 / (26 * F4)</f>
+        <v>0.21336508692545844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1254,20 +1287,24 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>7145</v>
+        <v>5034</v>
       </c>
       <c r="D5" s="2">
-        <v>1044</v>
+        <v>1078</v>
       </c>
       <c r="E5" s="2">
-        <v>975</v>
+        <v>1078</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>9164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7190</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.95851075211297743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1275,20 +1312,24 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>9995</v>
+        <v>7077</v>
       </c>
       <c r="D6" s="2">
-        <v>1476</v>
+        <v>1516</v>
       </c>
       <c r="E6" s="2">
-        <v>1352</v>
+        <v>1516</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>12823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10109</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.68173828347930632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1296,20 +1337,24 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>5583</v>
+        <v>3939</v>
       </c>
       <c r="D7" s="2">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="E7" s="2">
-        <v>757</v>
+        <v>844</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>7157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5627</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.2247542754029337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1317,20 +1362,24 @@
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>18405</v>
+        <v>11721</v>
       </c>
       <c r="D8" s="2">
-        <v>2696</v>
+        <v>2511</v>
       </c>
       <c r="E8" s="2">
-        <v>2432</v>
+        <v>2511</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>23533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16743</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.41161633564428762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1338,20 +1387,24 @@
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>6475</v>
+        <v>4182</v>
       </c>
       <c r="D9" s="2">
-        <v>936</v>
+        <v>896</v>
       </c>
       <c r="E9" s="2">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>8315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5974</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.1536143802631917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1359,20 +1412,24 @@
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>6735</v>
+        <v>4761</v>
       </c>
       <c r="D10" s="2">
-        <v>1007</v>
+        <v>1020</v>
       </c>
       <c r="E10" s="2">
-        <v>870</v>
+        <v>1020</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>8612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6801</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.0133351430219537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1380,20 +1437,24 @@
         <v>15</v>
       </c>
       <c r="C11" s="2">
-        <v>6411</v>
+        <v>4471</v>
       </c>
       <c r="D11" s="2">
-        <v>983</v>
+        <v>958</v>
       </c>
       <c r="E11" s="2">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>8194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6386</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.0791876460526633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1401,20 +1462,24 @@
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>848</v>
+        <v>512</v>
       </c>
       <c r="D12" s="2">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9.427759654845838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1422,20 +1487,24 @@
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>769</v>
+        <v>472</v>
       </c>
       <c r="D13" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10.240256029260486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1443,20 +1512,24 @@
         <v>18</v>
       </c>
       <c r="C14" s="2">
-        <v>1151</v>
+        <v>798</v>
       </c>
       <c r="D14" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>6.0506517187816575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1464,20 +1537,24 @@
         <v>19</v>
       </c>
       <c r="C15" s="2">
-        <v>1321</v>
+        <v>901</v>
       </c>
       <c r="D15" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E15" s="2">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>5.3590142361526496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1485,20 +1562,24 @@
         <v>20</v>
       </c>
       <c r="C16" s="2">
-        <v>945</v>
+        <v>570</v>
       </c>
       <c r="D16" s="2">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>8.4768663071246095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1506,20 +1587,24 @@
         <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>1287</v>
+        <v>852</v>
       </c>
       <c r="D17" s="2">
         <v>182</v>
       </c>
       <c r="E17" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>5.6628531698375575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1527,20 +1612,24 @@
         <v>22</v>
       </c>
       <c r="C18" s="2">
-        <v>1467</v>
+        <v>354</v>
       </c>
       <c r="D18" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>13.646915460776848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -1548,20 +1637,24 @@
         <v>23</v>
       </c>
       <c r="C19" s="2">
-        <v>1346</v>
+        <v>859</v>
       </c>
       <c r="D19" s="2">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E19" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1226</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>5.6212824695695822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -1569,20 +1662,24 @@
         <v>24</v>
       </c>
       <c r="C20" s="2">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="D20" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>26.404951370468613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1590,20 +1687,24 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>712</v>
+        <v>460</v>
       </c>
       <c r="D21" s="2">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>10.489638215665613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1611,20 +1712,24 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>504</v>
+        <v>321</v>
       </c>
       <c r="D22" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>15.047363117232113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1632,20 +1737,24 @@
         <v>27</v>
       </c>
       <c r="C23" s="2">
-        <v>557</v>
+        <v>388</v>
       </c>
       <c r="D23" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>12.439877811718967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1653,20 +1762,24 @@
         <v>28</v>
       </c>
       <c r="C24" s="2">
-        <v>26954</v>
+        <v>18964</v>
       </c>
       <c r="D24" s="2">
-        <v>3922</v>
+        <v>4063</v>
       </c>
       <c r="E24" s="2">
-        <v>3672</v>
+        <v>4063</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>34548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27090</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.25439986370218931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -1674,20 +1787,24 @@
         <v>29</v>
       </c>
       <c r="C25" s="2">
-        <v>15846</v>
+        <v>10370</v>
       </c>
       <c r="D25" s="2">
-        <v>2383</v>
+        <v>2222</v>
       </c>
       <c r="E25" s="2">
-        <v>1808</v>
+        <v>2222</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>20037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14814</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.46521481758419791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -1695,20 +1812,24 @@
         <v>30</v>
       </c>
       <c r="C26" s="2">
-        <v>9967</v>
+        <v>6307</v>
       </c>
       <c r="D26" s="2">
-        <v>1483</v>
+        <v>1351</v>
       </c>
       <c r="E26" s="2">
-        <v>1170</v>
+        <v>1351</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>12620</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9009</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.76497861113245724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -1716,20 +1837,24 @@
         <v>31</v>
       </c>
       <c r="C27" s="2">
-        <v>2447</v>
+        <v>1548</v>
       </c>
       <c r="D27" s="2">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="E27" s="2">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>3091</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2211</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>3.1170024005844903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -1737,21 +1862,25 @@
         <v>32</v>
       </c>
       <c r="C28" s="2">
-        <v>2785</v>
+        <v>1786</v>
       </c>
       <c r="D28" s="2">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E28" s="2">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>3530</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2551</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>2.7015649971353617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -1761,11 +1890,11 @@
       <c r="E30" s="5"/>
       <c r="F30" s="3">
         <f>SUM(F3:F28)</f>
-        <v>234921</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>179184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2747,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2767,18 +2896,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2830,22 +2959,22 @@
         <v>2480</v>
       </c>
       <c r="F3" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="6">
         <v>0.25</v>
       </c>
-      <c r="G3" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="H3" s="6">
-        <f>(((1-F3)/(F3))*B3)*1000</f>
-        <v>33361.149193548299</v>
-      </c>
-      <c r="I3" s="6">
-        <f>(((1-G3)/(G3))*B3)*1000</f>
-        <v>20652.139976958475</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="H3" s="36">
+        <f>((B3/F3)-B3)</f>
+        <v>39.426812683284354</v>
+      </c>
+      <c r="I3" s="36">
+        <f>((B3/G3)-B3)</f>
+        <v>33.3611491935483</v>
+      </c>
+      <c r="J3" s="35">
         <f>(H3+I3)/2</f>
-        <v>27006.644585253387</v>
+        <v>36.393980938416327</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2871,17 +3000,17 @@
       <c r="G4" s="6">
         <v>0.4</v>
       </c>
-      <c r="H4" s="6">
-        <f t="shared" ref="H4:H28" si="0">(((1-F4)/(F4))*B4)*1000</f>
-        <v>22780.524017467254</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I4:I28" si="1">(((1-G4)/(G4))*B4)*1000</f>
-        <v>14644.622582657519</v>
+      <c r="H4" s="36">
+        <f t="shared" ref="H4:H28" si="0">((B4/F4)-B4)</f>
+        <v>22.780524017467254</v>
+      </c>
+      <c r="I4" s="36">
+        <f t="shared" ref="I4:I28" si="1">((B4/G4)-B4)</f>
+        <v>14.644622582657519</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" ref="J4:J28" si="2">(H4+I4)/2</f>
-        <v>18712.573300062388</v>
+        <v>18.712573300062388</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2902,22 +3031,22 @@
         <v>562</v>
       </c>
       <c r="F5" s="6">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G5" s="6">
         <v>0.3</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="36">
         <f t="shared" si="0"/>
-        <v>21317.153024911</v>
-      </c>
-      <c r="I5" s="6">
+        <v>18.894749272080205</v>
+      </c>
+      <c r="I5" s="36">
         <f t="shared" si="1"/>
-        <v>12435.005931198084</v>
+        <v>12.435005931198086</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>16876.07947805454</v>
+        <v>15.664877601639144</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2938,22 +3067,22 @@
         <v>881</v>
       </c>
       <c r="F6" s="6">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G6" s="6">
         <v>0.3</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="36">
         <f t="shared" si="0"/>
-        <v>18131.66855845628</v>
-      </c>
-      <c r="I6" s="6">
+        <v>25.686530457813063</v>
+      </c>
+      <c r="I6" s="36">
         <f t="shared" si="1"/>
-        <v>10576.806659099499</v>
+        <v>10.576806659099496</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="2"/>
-        <v>14354.23760877789</v>
+        <v>18.13166855845628</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2979,17 +3108,17 @@
       <c r="G7" s="6">
         <v>0.35</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="36">
         <f t="shared" si="0"/>
-        <v>19811.409395973151</v>
-      </c>
-      <c r="I7" s="6">
+        <v>19.811409395973151</v>
+      </c>
+      <c r="I7" s="36">
         <f t="shared" si="1"/>
-        <v>12264.20581655481</v>
+        <v>12.26420581655481</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="2"/>
-        <v>16037.807606263981</v>
+        <v>16.037807606263982</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3010,22 +3139,22 @@
         <v>1084</v>
       </c>
       <c r="F8" s="6">
-        <v>0.4</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G8" s="6">
         <v>0.5</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="36">
         <f t="shared" si="0"/>
-        <v>7346.9557195571988</v>
-      </c>
-      <c r="I8" s="6">
+        <v>12.594781233526628</v>
+      </c>
+      <c r="I8" s="36">
         <f t="shared" si="1"/>
-        <v>4897.9704797048007</v>
+        <v>4.8979704797048003</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="2"/>
-        <v>6122.4630996309997</v>
+        <v>8.7463758566157139</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3051,17 +3180,17 @@
       <c r="G9" s="6">
         <v>0.25</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="36">
         <f t="shared" si="0"/>
-        <v>48626.876218323545</v>
-      </c>
-      <c r="I9" s="6">
+        <v>48.626876218323545</v>
+      </c>
+      <c r="I9" s="36">
         <f t="shared" si="1"/>
-        <v>25743.640350877173</v>
+        <v>25.743640350877172</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="2"/>
-        <v>37185.258284600357</v>
+        <v>37.185258284600359</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3087,17 +3216,17 @@
       <c r="G10" s="6">
         <v>0.35</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="36">
         <f t="shared" si="0"/>
-        <v>20412.284482758601</v>
-      </c>
-      <c r="I10" s="6">
+        <v>20.412284482758601</v>
+      </c>
+      <c r="I10" s="36">
         <f t="shared" si="1"/>
-        <v>12636.176108374373</v>
+        <v>12.636176108374373</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="2"/>
-        <v>16524.230295566485</v>
+        <v>16.524230295566486</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3123,17 +3252,17 @@
       <c r="G11" s="6">
         <v>0.3</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
-        <v>30702.549800796751</v>
-      </c>
-      <c r="I11" s="6">
+        <v>30.702549800796746</v>
+      </c>
+      <c r="I11" s="36">
         <f t="shared" si="1"/>
-        <v>7959.9203187250841</v>
+        <v>7.959920318725084</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="2"/>
-        <v>19331.235059760918</v>
+        <v>19.331235059760914</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3159,17 +3288,17 @@
       <c r="G12" s="6">
         <v>0.3</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="36">
         <f t="shared" si="0"/>
-        <v>40402.173913043407</v>
-      </c>
-      <c r="I12" s="6">
+        <v>40.402173913043399</v>
+      </c>
+      <c r="I12" s="36">
         <f t="shared" si="1"/>
-        <v>10474.637681159402</v>
+        <v>10.474637681159402</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="2"/>
-        <v>25438.405797101404</v>
+        <v>25.438405797101399</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3195,17 +3324,17 @@
       <c r="G13" s="6">
         <v>0.45</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="36">
         <f t="shared" si="0"/>
-        <v>11608.34879406308</v>
-      </c>
-      <c r="I13" s="6">
+        <v>11.60834879406308</v>
+      </c>
+      <c r="I13" s="36">
         <f t="shared" si="1"/>
-        <v>7639.6825396825388</v>
+        <v>7.6396825396825383</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="2"/>
-        <v>9624.0156668728087</v>
+        <v>9.6240156668728094</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3231,17 +3360,17 @@
       <c r="G14" s="6">
         <v>0.4</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="36">
         <f t="shared" si="0"/>
-        <v>21442.452830188671</v>
-      </c>
-      <c r="I14" s="6">
+        <v>21.442452830188671</v>
+      </c>
+      <c r="I14" s="36">
         <f t="shared" si="1"/>
-        <v>13784.433962264144</v>
+        <v>13.784433962264146</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="2"/>
-        <v>17613.443396226408</v>
+        <v>17.613443396226408</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3267,17 +3396,17 @@
       <c r="G15" s="6">
         <v>0.35</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="36">
         <f t="shared" si="0"/>
-        <v>17748.333333333332</v>
-      </c>
-      <c r="I15" s="6">
+        <v>17.748333333333331</v>
+      </c>
+      <c r="I15" s="36">
         <f t="shared" si="1"/>
-        <v>10987.063492063493</v>
+        <v>10.987063492063491</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="2"/>
-        <v>14367.698412698413</v>
+        <v>14.367698412698411</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3303,17 +3432,17 @@
       <c r="G16" s="6">
         <v>0.4</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="36">
         <f t="shared" si="0"/>
-        <v>11731.61512027491</v>
-      </c>
-      <c r="I16" s="6">
+        <v>11.73161512027491</v>
+      </c>
+      <c r="I16" s="36">
         <f t="shared" si="1"/>
-        <v>7541.7525773195839</v>
+        <v>7.5417525773195848</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="2"/>
-        <v>9636.6838487972473</v>
+        <v>9.6366838487972473</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3339,17 +3468,17 @@
       <c r="G17" s="6">
         <v>0.4</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="36">
         <f t="shared" si="0"/>
-        <v>8696.2962962962811</v>
-      </c>
-      <c r="I17" s="6">
+        <v>8.696296296296282</v>
+      </c>
+      <c r="I17" s="36">
         <f t="shared" si="1"/>
-        <v>5590.4761904761799</v>
+        <v>5.5904761904761786</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="2"/>
-        <v>7143.3862433862305</v>
+        <v>7.1433862433862299</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3375,17 +3504,17 @@
       <c r="G18" s="6">
         <v>0.4</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="36">
         <f t="shared" si="0"/>
-        <v>25394.918699186866</v>
-      </c>
-      <c r="I18" s="6">
+        <v>25.394918699186871</v>
+      </c>
+      <c r="I18" s="36">
         <f t="shared" si="1"/>
-        <v>16325.304878048697</v>
+        <v>16.325304878048698</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="2"/>
-        <v>20860.111788617782</v>
+        <v>20.860111788617786</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3411,17 +3540,17 @@
       <c r="G19" s="6">
         <v>0.4</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="36">
         <f t="shared" si="0"/>
-        <v>11511.538461538456</v>
-      </c>
-      <c r="I19" s="6">
+        <v>11.511538461538454</v>
+      </c>
+      <c r="I19" s="36">
         <f t="shared" si="1"/>
-        <v>7400.2747252747185</v>
+        <v>7.400274725274719</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="2"/>
-        <v>9455.9065934065875</v>
+        <v>9.4559065934065867</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3447,17 +3576,17 @@
       <c r="G20" s="6">
         <v>0.35</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="36">
         <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
-      <c r="I20" s="6">
+        <v>24</v>
+      </c>
+      <c r="I20" s="36">
         <f t="shared" si="1"/>
-        <v>14857.142857142859</v>
+        <v>14.857142857142858</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="2"/>
-        <v>19428.571428571428</v>
+        <v>19.428571428571431</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3483,17 +3612,17 @@
       <c r="G21" s="6">
         <v>0.35</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="36">
         <f t="shared" si="0"/>
-        <v>21135.135135135119</v>
-      </c>
-      <c r="I21" s="6">
+        <v>21.135135135135119</v>
+      </c>
+      <c r="I21" s="36">
         <f t="shared" si="1"/>
-        <v>9812.7413127413074</v>
+        <v>9.8127413127413057</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="2"/>
-        <v>15473.938223938214</v>
+        <v>15.473938223938212</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3519,17 +3648,17 @@
       <c r="G22" s="6">
         <v>0.5</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="36">
         <f t="shared" si="0"/>
-        <v>13852.76967930028</v>
-      </c>
-      <c r="I22" s="6">
+        <v>13.85276967930028</v>
+      </c>
+      <c r="I22" s="36">
         <f t="shared" si="1"/>
-        <v>7459.1836734693798</v>
+        <v>7.4591836734693802</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="2"/>
-        <v>10655.976676384829</v>
+        <v>10.65597667638483</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3555,17 +3684,17 @@
       <c r="G23" s="6">
         <v>0.4</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="36">
         <f t="shared" si="0"/>
-        <v>20376.754385964901</v>
-      </c>
-      <c r="I23" s="6">
+        <v>20.376754385964901</v>
+      </c>
+      <c r="I23" s="36">
         <f t="shared" si="1"/>
-        <v>13099.342105263147</v>
+        <v>13.099342105263149</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="2"/>
-        <v>16738.048245614023</v>
+        <v>16.738048245614024</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3586,22 +3715,22 @@
         <v>2627</v>
       </c>
       <c r="F24" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="G24" s="6">
         <v>0.3</v>
       </c>
-      <c r="G24" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="H24" s="36">
         <f t="shared" si="0"/>
-        <v>25317.066362136735</v>
-      </c>
-      <c r="I24" s="6">
+        <v>56.963399314807646</v>
+      </c>
+      <c r="I24" s="36">
         <f t="shared" si="1"/>
-        <v>16275.256947087897</v>
+        <v>25.317066362136735</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="2"/>
-        <v>20796.161654612315</v>
+        <v>41.140232838472187</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3627,17 +3756,17 @@
       <c r="G25" s="6">
         <v>0.4</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="36">
         <f t="shared" si="0"/>
-        <v>17298.607038123151</v>
-      </c>
-      <c r="I25" s="6">
+        <v>17.298607038123151</v>
+      </c>
+      <c r="I25" s="36">
         <f t="shared" si="1"/>
-        <v>8649.3035190615738</v>
+        <v>8.6493035190615739</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="2"/>
-        <v>12973.955278592362</v>
+        <v>12.973955278592364</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3663,17 +3792,17 @@
       <c r="G26" s="6">
         <v>0.4</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="36">
         <f t="shared" si="0"/>
-        <v>12267.891031527368</v>
-      </c>
-      <c r="I26" s="6">
+        <v>12.26789103152737</v>
+      </c>
+      <c r="I26" s="36">
         <f t="shared" si="1"/>
-        <v>7886.5013774104491</v>
+        <v>7.8865013774104504</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="2"/>
-        <v>10077.196204468908</v>
+        <v>10.07719620446891</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3699,17 +3828,17 @@
       <c r="G27" s="6">
         <v>0.35</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="36">
         <f t="shared" si="0"/>
-        <v>41143.933054393201</v>
-      </c>
-      <c r="I27" s="6">
+        <v>41.143933054393202</v>
+      </c>
+      <c r="I27" s="36">
         <f t="shared" si="1"/>
-        <v>25470.05379557675</v>
+        <v>25.470053795576746</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="2"/>
-        <v>33306.993424984976</v>
+        <v>33.306993424984974</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3735,21 +3864,22 @@
       <c r="G28" s="6">
         <v>0.5</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="36">
         <f t="shared" si="0"/>
-        <v>8190.8653846153802</v>
-      </c>
-      <c r="I28" s="6">
+        <v>8.1908653846153783</v>
+      </c>
+      <c r="I28" s="36">
         <f t="shared" si="1"/>
-        <v>5460.5769230769201</v>
+        <v>5.4605769230769203</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="2"/>
-        <v>6825.7211538461506</v>
+        <v>6.8257211538461497</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4738,7 +4868,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4754,442 +4884,442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="41">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="11" t="str">
         <f>'Version 1 (Number of Files)'!B$3</f>
         <v>Container Ships</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="47">
         <f>'Version 1 (Number of Files)'!C3+'Version 1 (Number of Files)'!C4 + 'Version 1 (Number of Files)'!C7 + 'Version 1 (Number of Files)'!C9 + 'Version 1 (Number of Files)'!C10 + 'Version 1 (Number of Files)'!C13 + 'Version 1 (Number of Files)'!C14 + 'Version 1 (Number of Files)'!C15 + 'Version 1 (Number of Files)'!C24 + 'Version 1 (Number of Files)'!C27</f>
-        <v>105280</v>
-      </c>
-      <c r="E4" s="37">
+        <v>74178</v>
+      </c>
+      <c r="E4" s="47">
         <f>'Version 1 (Number of Files)'!D3+'Version 1 (Number of Files)'!D4 + 'Version 1 (Number of Files)'!D7 + 'Version 1 (Number of Files)'!D9 + 'Version 1 (Number of Files)'!D10 + 'Version 1 (Number of Files)'!D13 + 'Version 1 (Number of Files)'!D14 + 'Version 1 (Number of Files)'!D15 + 'Version 1 (Number of Files)'!D24 + 'Version 1 (Number of Files)'!D27</f>
-        <v>15329</v>
-      </c>
-      <c r="F4" s="37">
+        <v>15892</v>
+      </c>
+      <c r="F4" s="47">
         <f>'Version 1 (Number of Files)'!E3+'Version 1 (Number of Files)'!E4 + 'Version 1 (Number of Files)'!E7 + 'Version 1 (Number of Files)'!E9 + 'Version 1 (Number of Files)'!E10 + 'Version 1 (Number of Files)'!E13 + 'Version 1 (Number of Files)'!E14 + 'Version 1 (Number of Files)'!E15 + 'Version 1 (Number of Files)'!E24 + 'Version 1 (Number of Files)'!E27</f>
-        <v>14393</v>
-      </c>
-      <c r="G4" s="37">
+        <v>15890</v>
+      </c>
+      <c r="G4" s="47">
         <f>'Version 1 (Number of Files)'!F3+'Version 1 (Number of Files)'!F4 + 'Version 1 (Number of Files)'!F7 + 'Version 1 (Number of Files)'!F9 + 'Version 1 (Number of Files)'!F10 + 'Version 1 (Number of Files)'!F13 + 'Version 1 (Number of Files)'!F14 + 'Version 1 (Number of Files)'!F15 + 'Version 1 (Number of Files)'!F24 + 'Version 1 (Number of Files)'!F27</f>
-        <v>135002</v>
+        <v>105960</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$4</f>
         <v>Bulk Carriers</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$7</f>
         <v>Ro-ro Cargo Ships</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$9</f>
         <v>Vehicles Carriers</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$10</f>
         <v>Reefers</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B13</f>
         <v>Heavy Load Carriers</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$14</f>
         <v>Wood Chips Carriers</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$15</f>
         <v>Livestock Carriers</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$24</f>
         <v>Tankers</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="13" t="str">
         <f>'Version 1 (Number of Files)'!B$27</f>
         <v>Carrier/Floating</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="41">
         <v>1</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="41" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B5</f>
         <v>Passengers Ships</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="41">
         <f>'Version 1 (Number of Files)'!C5 + 'Version 1 (Number of Files)'!C6</f>
-        <v>17140</v>
-      </c>
-      <c r="E14" s="30">
+        <v>12111</v>
+      </c>
+      <c r="E14" s="41">
         <f>'Version 1 (Number of Files)'!D5 + 'Version 1 (Number of Files)'!D6</f>
-        <v>2520</v>
-      </c>
-      <c r="F14" s="30">
+        <v>2594</v>
+      </c>
+      <c r="F14" s="41">
         <f>'Version 1 (Number of Files)'!E5 + 'Version 1 (Number of Files)'!E6</f>
-        <v>2327</v>
-      </c>
-      <c r="G14" s="30">
+        <v>2594</v>
+      </c>
+      <c r="G14" s="41">
         <f>'Version 1 (Number of Files)'!F5 + 'Version 1 (Number of Files)'!F6</f>
-        <v>21987</v>
+        <v>17299</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B6</f>
         <v>Ro-ro Passenger Ships</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="41">
         <v>2</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B8</f>
         <v>Tugs</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="41">
         <f>'Version 1 (Number of Files)'!C8 + 'Version 1 (Number of Files)'!C16 + 'Version 1 (Number of Files)'!C19 + 'Version 1 (Number of Files)'!C23 + 'Version 1 (Number of Files)'!C26 + 'Version 1 (Number of Files)'!C28 + 'Version 1 (Number of Files)'!C22</f>
-        <v>34509</v>
-      </c>
-      <c r="E16" s="30">
+        <v>21952</v>
+      </c>
+      <c r="E16" s="41">
         <f>'Version 1 (Number of Files)'!D8 + 'Version 1 (Number of Files)'!D16 + 'Version 1 (Number of Files)'!D19 + 'Version 1 (Number of Files)'!D23 + 'Version 1 (Number of Files)'!D26 + 'Version 1 (Number of Files)'!D28 + 'Version 1 (Number of Files)'!D22</f>
-        <v>5070</v>
-      </c>
-      <c r="F16" s="30">
+        <v>4703</v>
+      </c>
+      <c r="F16" s="41">
         <f>'Version 1 (Number of Files)'!E8 + 'Version 1 (Number of Files)'!E16 + 'Version 1 (Number of Files)'!E19 + 'Version 1 (Number of Files)'!E23 + 'Version 1 (Number of Files)'!E26 + 'Version 1 (Number of Files)'!E28 + 'Version 1 (Number of Files)'!E22</f>
-        <v>4361</v>
-      </c>
-      <c r="G16" s="30">
+        <v>4699</v>
+      </c>
+      <c r="G16" s="41">
         <f>'Version 1 (Number of Files)'!F8 + 'Version 1 (Number of Files)'!F16 + 'Version 1 (Number of Files)'!F19 + 'Version 1 (Number of Files)'!F23 + 'Version 1 (Number of Files)'!F26 + 'Version 1 (Number of Files)'!F28 + 'Version 1 (Number of Files)'!F22</f>
-        <v>43940</v>
+        <v>31354</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B16</f>
         <v>Fire Fighting Vessels</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B19</f>
         <v>Standby Safety Vessels</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B23</f>
         <v>Replenishment Vessels</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B26</f>
         <v>Supply Vessels</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B22</f>
         <v>Icebreakers</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B28</f>
         <v>Dredgers</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="41">
         <v>3</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="41" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="11" t="str">
         <f>'Version 1 (Number of Files)'!B11</f>
         <v>Yachts</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="41">
         <f>'Version 1 (Number of Files)'!C11 + 'Version 1 (Number of Files)'!C12</f>
-        <v>7259</v>
-      </c>
-      <c r="E23" s="30">
+        <v>4983</v>
+      </c>
+      <c r="E23" s="41">
         <f>'Version 1 (Number of Files)'!D11 + 'Version 1 (Number of Files)'!D12</f>
-        <v>1106</v>
-      </c>
-      <c r="F23" s="30">
+        <v>1068</v>
+      </c>
+      <c r="F23" s="41">
         <f>'Version 1 (Number of Files)'!E11 + 'Version 1 (Number of Files)'!E12</f>
-        <v>910</v>
-      </c>
-      <c r="G23" s="30">
+        <v>1066</v>
+      </c>
+      <c r="G23" s="41">
         <f>'Version 1 (Number of Files)'!F11 + 'Version 1 (Number of Files)'!F12</f>
-        <v>9275</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B12</f>
         <v>Sailing Vessels</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="41">
         <v>4</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="11" t="str">
         <f>'Version 1 (Number of Files)'!B17</f>
         <v>Patrol Vessels</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="41">
         <f>'Version 1 (Number of Files)'!C17+'Version 1 (Number of Files)'!C20</f>
-        <v>1550</v>
-      </c>
-      <c r="E25" s="30">
+        <v>1035</v>
+      </c>
+      <c r="E25" s="41">
         <f>'Version 1 (Number of Files)'!D17+'Version 1 (Number of Files)'!D20</f>
-        <v>220</v>
-      </c>
-      <c r="F25" s="30">
+        <v>221</v>
+      </c>
+      <c r="F25" s="41">
         <f>'Version 1 (Number of Files)'!E17+'Version 1 (Number of Files)'!E20</f>
-        <v>187</v>
-      </c>
-      <c r="G25" s="30">
+        <v>222</v>
+      </c>
+      <c r="G25" s="41">
         <f>'Version 1 (Number of Files)'!F17+'Version 1 (Number of Files)'!F20</f>
-        <v>1957</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="13" t="str">
         <f>'Version 1 (Number of Files)'!B20</f>
         <v>Combat Vessels</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="A27" s="41">
         <v>5</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="33" t="str">
+      <c r="C27" s="53" t="str">
         <f>'Version 1 (Number of Files)'!B21</f>
         <v>Training Ships</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="41">
         <f>'Version 1 (Number of Files)'!C21</f>
-        <v>712</v>
-      </c>
-      <c r="E27" s="30">
+        <v>460</v>
+      </c>
+      <c r="E27" s="41">
         <f>'Version 1 (Number of Files)'!D21</f>
-        <v>107</v>
-      </c>
-      <c r="F27" s="30">
+        <v>99</v>
+      </c>
+      <c r="F27" s="41">
         <f>'Version 1 (Number of Files)'!E21</f>
-        <v>81</v>
-      </c>
-      <c r="G27" s="30">
+        <v>98</v>
+      </c>
+      <c r="G27" s="41">
         <f>'Version 1 (Number of Files)'!F21</f>
-        <v>900</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
@@ -5204,19 +5334,19 @@
       </c>
       <c r="D29" s="17">
         <f>'Version 1 (Number of Files)'!C25</f>
-        <v>15846</v>
+        <v>10370</v>
       </c>
       <c r="E29" s="17">
         <f>'Version 1 (Number of Files)'!D25</f>
-        <v>2383</v>
+        <v>2222</v>
       </c>
       <c r="F29" s="17">
         <f>'Version 1 (Number of Files)'!E25</f>
-        <v>1808</v>
+        <v>2222</v>
       </c>
       <c r="G29" s="17">
         <f>'Version 1 (Number of Files)'!F25</f>
-        <v>20037</v>
+        <v>14814</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,19 +5362,19 @@
       </c>
       <c r="D30" s="17">
         <f>'Version 1 (Number of Files)'!C$18</f>
-        <v>1467</v>
+        <v>354</v>
       </c>
       <c r="E30" s="17">
         <f>'Version 1 (Number of Files)'!D$18</f>
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="F30" s="17">
         <f>'Version 1 (Number of Files)'!E$18</f>
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="G30" s="17">
         <f>'Version 1 (Number of Files)'!F$18</f>
-        <v>1823</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5259,7 +5389,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3">
         <f>SUM(G4:G30)</f>
-        <v>234921</v>
+        <v>179184</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6232,35 +6362,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F4:F13"/>
-    <mergeCell ref="G4:G13"/>
-    <mergeCell ref="D4:D13"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F27:F28"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -6276,6 +6377,35 @@
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="D4:D13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6286,7 +6416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G25" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
@@ -6305,30 +6435,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="29"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6341,22 +6471,22 @@
         <f>'Version 1 (AD)'!A2</f>
         <v>Category</v>
       </c>
-      <c r="D3" s="60" t="str">
+      <c r="D3" s="27" t="str">
         <f>'Version 1 (AD)'!H2</f>
         <v>Max AD (mm)</v>
       </c>
-      <c r="E3" s="60" t="str">
+      <c r="E3" s="27" t="str">
         <f>'Version 1 (AD)'!I2</f>
         <v>Min AD (mm)</v>
       </c>
-      <c r="F3" s="61" t="str">
+      <c r="F3" s="28" t="str">
         <f>'Version 1 (AD)'!J2</f>
         <v>MAD (mm)</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="33" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="19" t="s">
@@ -6364,598 +6494,598 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="44">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B$3</f>
         <v>Container Ships</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="30">
         <f>'Version 1 (AD)'!H3</f>
-        <v>33361.149193548299</v>
-      </c>
-      <c r="E4" s="63">
+        <v>39.426812683284354</v>
+      </c>
+      <c r="E4" s="30">
         <f>'Version 1 (AD)'!I3</f>
-        <v>20652.139976958475</v>
-      </c>
-      <c r="F4" s="63">
+        <v>33.3611491935483</v>
+      </c>
+      <c r="F4" s="30">
         <f>'Version 1 (AD)'!J3</f>
-        <v>27006.644585253387</v>
-      </c>
-      <c r="G4" s="65">
+        <v>36.393980938416327</v>
+      </c>
+      <c r="G4" s="57">
         <f>AVERAGE(D4:D13)</f>
-        <v>23175.717002231868</v>
-      </c>
-      <c r="H4" s="65">
+        <v>27.702402836408236</v>
+      </c>
+      <c r="H4" s="57">
         <f>AVERAGE(E4:E13)</f>
-        <v>14493.04418803195</v>
-      </c>
-      <c r="I4" s="43">
+        <v>16.668126051195816</v>
+      </c>
+      <c r="I4" s="61">
         <f>((G4+H4)/2)</f>
-        <v>18834.380595131908</v>
+        <v>22.185264443802026</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$4</f>
         <v>Bulk Carriers</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="29">
         <f>'Version 1 (AD)'!H4</f>
-        <v>22780.524017467254</v>
-      </c>
-      <c r="E5" s="62">
+        <v>22.780524017467254</v>
+      </c>
+      <c r="E5" s="29">
         <f>'Version 1 (AD)'!I4</f>
-        <v>14644.622582657519</v>
-      </c>
-      <c r="F5" s="62">
+        <v>14.644622582657519</v>
+      </c>
+      <c r="F5" s="29">
         <f>'Version 1 (AD)'!J4</f>
-        <v>18712.573300062388</v>
-      </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="38"/>
+        <v>18.712573300062388</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$7</f>
         <v>Ro-ro Cargo Ships</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="29">
         <f>'Version 1 (AD)'!H7</f>
-        <v>19811.409395973151</v>
-      </c>
-      <c r="E6" s="62">
+        <v>19.811409395973151</v>
+      </c>
+      <c r="E6" s="29">
         <f>'Version 1 (AD)'!I7</f>
-        <v>12264.20581655481</v>
-      </c>
-      <c r="F6" s="62">
+        <v>12.26420581655481</v>
+      </c>
+      <c r="F6" s="29">
         <f>'Version 1 (AD)'!J7</f>
-        <v>16037.807606263981</v>
-      </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="38"/>
+        <v>16.037807606263982</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$9</f>
         <v>Vehicles Carriers</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="29">
         <f>'Version 1 (AD)'!H6</f>
-        <v>18131.66855845628</v>
-      </c>
-      <c r="E7" s="62">
+        <v>25.686530457813063</v>
+      </c>
+      <c r="E7" s="29">
         <f>'Version 1 (AD)'!I6</f>
-        <v>10576.806659099499</v>
-      </c>
-      <c r="F7" s="62">
+        <v>10.576806659099496</v>
+      </c>
+      <c r="F7" s="29">
         <f>'Version 1 (AD)'!J6</f>
-        <v>14354.23760877789</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="38"/>
+        <v>18.13166855845628</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$10</f>
         <v>Reefers</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="29">
         <f>'Version 1 (AD)'!H10</f>
-        <v>20412.284482758601</v>
-      </c>
-      <c r="E8" s="62">
+        <v>20.412284482758601</v>
+      </c>
+      <c r="E8" s="29">
         <f>'Version 1 (AD)'!I10</f>
-        <v>12636.176108374373</v>
-      </c>
-      <c r="F8" s="62">
+        <v>12.636176108374373</v>
+      </c>
+      <c r="F8" s="29">
         <f>'Version 1 (AD)'!J10</f>
-        <v>16524.230295566485</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="38"/>
+        <v>16.524230295566486</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B13</f>
         <v>Heavy Load Carriers</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="29">
         <f>'Version 1 (AD)'!H13</f>
-        <v>11608.34879406308</v>
-      </c>
-      <c r="E9" s="62">
+        <v>11.60834879406308</v>
+      </c>
+      <c r="E9" s="29">
         <f>'Version 1 (AD)'!I13</f>
-        <v>7639.6825396825388</v>
-      </c>
-      <c r="F9" s="62">
+        <v>7.6396825396825383</v>
+      </c>
+      <c r="F9" s="29">
         <f>'Version 1 (AD)'!J13</f>
-        <v>9624.0156668728087</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="38"/>
+        <v>9.6240156668728094</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$14</f>
         <v>Wood Chips Carriers</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="29">
         <f>'Version 1 (AD)'!H14</f>
-        <v>21442.452830188671</v>
-      </c>
-      <c r="E10" s="62">
+        <v>21.442452830188671</v>
+      </c>
+      <c r="E10" s="29">
         <f>'Version 1 (AD)'!I14</f>
-        <v>13784.433962264144</v>
-      </c>
-      <c r="F10" s="62">
+        <v>13.784433962264146</v>
+      </c>
+      <c r="F10" s="29">
         <f>'Version 1 (AD)'!J14</f>
-        <v>17613.443396226408</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="38"/>
+        <v>17.613443396226408</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$15</f>
         <v>Livestock Carriers</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="29">
         <f>'Version 1 (AD)'!H15</f>
-        <v>17748.333333333332</v>
-      </c>
-      <c r="E11" s="62">
+        <v>17.748333333333331</v>
+      </c>
+      <c r="E11" s="29">
         <f>'Version 1 (AD)'!I15</f>
-        <v>10987.063492063493</v>
-      </c>
-      <c r="F11" s="62">
+        <v>10.987063492063491</v>
+      </c>
+      <c r="F11" s="29">
         <f>'Version 1 (AD)'!J15</f>
-        <v>14367.698412698413</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="38"/>
+        <v>14.367698412698411</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$24</f>
         <v>Tankers</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="29">
         <f>'Version 1 (AD)'!H24</f>
-        <v>25317.066362136735</v>
-      </c>
-      <c r="E12" s="62">
+        <v>56.963399314807646</v>
+      </c>
+      <c r="E12" s="29">
         <f>'Version 1 (AD)'!I24</f>
-        <v>16275.256947087897</v>
-      </c>
-      <c r="F12" s="62">
+        <v>25.317066362136735</v>
+      </c>
+      <c r="F12" s="29">
         <f>'Version 1 (AD)'!J24</f>
-        <v>20796.161654612315</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="38"/>
+        <v>41.140232838472187</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B$27</f>
         <v>Carrier/Floating</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="29">
         <f>'Version 1 (AD)'!H27</f>
-        <v>41143.933054393201</v>
-      </c>
-      <c r="E13" s="62">
+        <v>41.143933054393202</v>
+      </c>
+      <c r="E13" s="29">
         <f>'Version 1 (AD)'!I27</f>
-        <v>25470.05379557675</v>
-      </c>
-      <c r="F13" s="62">
+        <v>25.470053795576746</v>
+      </c>
+      <c r="F13" s="29">
         <f>'Version 1 (AD)'!J27</f>
-        <v>33306.993424984976</v>
-      </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="39"/>
+        <v>33.306993424984974</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="44">
         <v>1</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="55" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B5</f>
         <v>Passengers Ships</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="30">
         <f>'Version 1 (AD)'!H5</f>
-        <v>21317.153024911</v>
-      </c>
-      <c r="E14" s="63">
+        <v>18.894749272080205</v>
+      </c>
+      <c r="E14" s="30">
         <f>'Version 1 (AD)'!I5</f>
-        <v>12435.005931198084</v>
-      </c>
-      <c r="F14" s="63">
+        <v>12.435005931198086</v>
+      </c>
+      <c r="F14" s="30">
         <f>'Version 1 (AD)'!J5</f>
-        <v>16876.07947805454</v>
-      </c>
-      <c r="G14" s="65">
+        <v>15.664877601639144</v>
+      </c>
+      <c r="G14" s="57">
         <f>AVERAGE(D14:D15)</f>
-        <v>19724.41079168364</v>
-      </c>
-      <c r="H14" s="65">
+        <v>22.290639864946634</v>
+      </c>
+      <c r="H14" s="57">
         <f>AVERAGE(E14:E15)</f>
-        <v>11505.90629514879</v>
-      </c>
-      <c r="I14" s="43">
+        <v>11.50590629514879</v>
+      </c>
+      <c r="I14" s="61">
         <f>((G14+H14)/2)</f>
-        <v>15615.158543416215</v>
+        <v>16.898273080047712</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B6</f>
         <v>Ro-ro Passenger Ships</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="29">
         <f>'Version 1 (AD)'!H6</f>
-        <v>18131.66855845628</v>
-      </c>
-      <c r="E15" s="62">
+        <v>25.686530457813063</v>
+      </c>
+      <c r="E15" s="29">
         <f>'Version 1 (AD)'!I6</f>
-        <v>10576.806659099499</v>
-      </c>
-      <c r="F15" s="62">
+        <v>10.576806659099496</v>
+      </c>
+      <c r="F15" s="29">
         <f>'Version 1 (AD)'!J6</f>
-        <v>14354.23760877789</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="44"/>
+        <v>18.13166855845628</v>
+      </c>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="44">
         <v>2</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="55" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B8</f>
         <v>Tugs</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="30">
         <f>'Version 1 (AD)'!H8</f>
-        <v>7346.9557195571988</v>
-      </c>
-      <c r="E16" s="63">
+        <v>12.594781233526628</v>
+      </c>
+      <c r="E16" s="30">
         <f>'Version 1 (AD)'!I8</f>
-        <v>4897.9704797048007</v>
-      </c>
-      <c r="F16" s="63">
+        <v>4.8979704797048003</v>
+      </c>
+      <c r="F16" s="30">
         <f>'Version 1 (AD)'!J8</f>
-        <v>6122.4630996309997</v>
-      </c>
-      <c r="G16" s="65">
+        <v>8.7463758566157139</v>
+      </c>
+      <c r="G16" s="57">
         <f>AVERAGE(D16:D22)</f>
-        <v>12182.627111825499</v>
-      </c>
-      <c r="H16" s="65">
+        <v>12.932316470963988</v>
+      </c>
+      <c r="H16" s="57">
         <f>AVERAGE(E16:E22)</f>
-        <v>7677.9431230741438</v>
-      </c>
-      <c r="I16" s="43">
+        <v>7.6779431230741446</v>
+      </c>
+      <c r="I16" s="61">
         <f>((G16+H16)/2)</f>
-        <v>9930.285117449821</v>
+        <v>10.305129797019067</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B16</f>
         <v>Fire Fighting Vessels</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="29">
         <f>'Version 1 (AD)'!H16</f>
-        <v>11731.61512027491</v>
-      </c>
-      <c r="E17" s="62">
+        <v>11.73161512027491</v>
+      </c>
+      <c r="E17" s="29">
         <f>'Version 1 (AD)'!I16</f>
-        <v>7541.7525773195839</v>
-      </c>
-      <c r="F17" s="62">
+        <v>7.5417525773195848</v>
+      </c>
+      <c r="F17" s="29">
         <f>'Version 1 (AD)'!J16</f>
-        <v>9636.6838487972473</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="38"/>
+        <v>9.6366838487972473</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B19</f>
         <v>Standby Safety Vessels</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="29">
         <f>'Version 1 (AD)'!H19</f>
-        <v>11511.538461538456</v>
-      </c>
-      <c r="E18" s="62">
+        <v>11.511538461538454</v>
+      </c>
+      <c r="E18" s="29">
         <f>'Version 1 (AD)'!I19</f>
-        <v>7400.2747252747185</v>
-      </c>
-      <c r="F18" s="62">
+        <v>7.400274725274719</v>
+      </c>
+      <c r="F18" s="29">
         <f>'Version 1 (AD)'!J19</f>
-        <v>9455.9065934065875</v>
-      </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="38"/>
+        <v>9.4559065934065867</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B23</f>
         <v>Replenishment Vessels</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="29">
         <f>'Version 1 (AD)'!H23</f>
-        <v>20376.754385964901</v>
-      </c>
-      <c r="E19" s="62">
+        <v>20.376754385964901</v>
+      </c>
+      <c r="E19" s="29">
         <f>'Version 1 (AD)'!I23</f>
-        <v>13099.342105263147</v>
-      </c>
-      <c r="F19" s="62">
+        <v>13.099342105263149</v>
+      </c>
+      <c r="F19" s="29">
         <f>'Version 1 (AD)'!J23</f>
-        <v>16738.048245614023</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="38"/>
+        <v>16.738048245614024</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B26</f>
         <v>Supply Vessels</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="29">
         <f>'Version 1 (AD)'!H26</f>
-        <v>12267.891031527368</v>
-      </c>
-      <c r="E20" s="62">
+        <v>12.26789103152737</v>
+      </c>
+      <c r="E20" s="29">
         <f>'Version 1 (AD)'!I26</f>
-        <v>7886.5013774104491</v>
-      </c>
-      <c r="F20" s="62">
+        <v>7.8865013774104504</v>
+      </c>
+      <c r="F20" s="29">
         <f>'Version 1 (AD)'!J26</f>
-        <v>10077.196204468908</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="38"/>
+        <v>10.07719620446891</v>
+      </c>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="48"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B28</f>
         <v>Dredgers</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="29">
         <f>'Version 1 (AD)'!H28</f>
-        <v>8190.8653846153802</v>
-      </c>
-      <c r="E21" s="62">
+        <v>8.1908653846153783</v>
+      </c>
+      <c r="E21" s="29">
         <f>'Version 1 (AD)'!I28</f>
-        <v>5460.5769230769201</v>
-      </c>
-      <c r="F21" s="62">
+        <v>5.4605769230769203</v>
+      </c>
+      <c r="F21" s="29">
         <f>'Version 1 (AD)'!J28</f>
-        <v>6825.7211538461506</v>
-      </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="38"/>
+        <v>6.8257211538461497</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B22</f>
         <v>Icebreakers</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="29">
         <f>'Version 1 (AD)'!H22</f>
-        <v>13852.76967930028</v>
-      </c>
-      <c r="E22" s="62">
+        <v>13.85276967930028</v>
+      </c>
+      <c r="E22" s="29">
         <f>'Version 1 (AD)'!I22</f>
-        <v>7459.1836734693798</v>
-      </c>
-      <c r="F22" s="62">
+        <v>7.4591836734693802</v>
+      </c>
+      <c r="F22" s="29">
         <f>'Version 1 (AD)'!J22</f>
-        <v>10655.976676384829</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="44"/>
+        <v>10.65597667638483</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="44">
         <v>3</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="55" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B11</f>
         <v>Yachts</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="30">
         <f>'Version 1 (AD)'!H11</f>
-        <v>30702.549800796751</v>
-      </c>
-      <c r="E23" s="63">
+        <v>30.702549800796746</v>
+      </c>
+      <c r="E23" s="30">
         <f>'Version 1 (AD)'!I11</f>
-        <v>7959.9203187250841</v>
-      </c>
-      <c r="F23" s="63">
+        <v>7.959920318725084</v>
+      </c>
+      <c r="F23" s="30">
         <f>'Version 1 (AD)'!J11</f>
-        <v>19331.235059760918</v>
-      </c>
-      <c r="G23" s="65">
+        <v>19.331235059760914</v>
+      </c>
+      <c r="G23" s="57">
         <f>AVERAGE(D23:D24)</f>
-        <v>35552.361856920077</v>
-      </c>
-      <c r="H23" s="65">
+        <v>35.552361856920072</v>
+      </c>
+      <c r="H23" s="57">
         <f>AVERAGE(E23:E24)</f>
-        <v>9217.2789999422421</v>
-      </c>
-      <c r="I23" s="43">
+        <v>9.2172789999422431</v>
+      </c>
+      <c r="I23" s="61">
         <f>((G23+H23)/2)</f>
-        <v>22384.820428431158</v>
+        <v>22.384820428431158</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B12</f>
         <v>Sailing Vessels</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="29">
         <f>'Version 1 (AD)'!H12</f>
-        <v>40402.173913043407</v>
-      </c>
-      <c r="E24" s="62">
+        <v>40.402173913043399</v>
+      </c>
+      <c r="E24" s="29">
         <f>'Version 1 (AD)'!I12</f>
-        <v>10474.637681159402</v>
-      </c>
-      <c r="F24" s="62">
+        <v>10.474637681159402</v>
+      </c>
+      <c r="F24" s="29">
         <f>'Version 1 (AD)'!J12</f>
-        <v>25438.405797101404</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="44"/>
+        <v>25.438405797101399</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="44">
         <v>4</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="55" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B17</f>
         <v>Patrol Vessels</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="30">
         <f>'Version 1 (AD)'!H17</f>
-        <v>8696.2962962962811</v>
-      </c>
-      <c r="E25" s="63">
+        <v>8.696296296296282</v>
+      </c>
+      <c r="E25" s="30">
         <f>'Version 1 (AD)'!I17</f>
-        <v>5590.4761904761799</v>
-      </c>
-      <c r="F25" s="63">
+        <v>5.5904761904761786</v>
+      </c>
+      <c r="F25" s="30">
         <f>'Version 1 (AD)'!J17</f>
-        <v>7143.3862433862305</v>
-      </c>
-      <c r="G25" s="65">
+        <v>7.1433862433862299</v>
+      </c>
+      <c r="G25" s="57">
         <f>AVERAGE(D25:D26)</f>
-        <v>16348.148148148141</v>
-      </c>
-      <c r="H25" s="65">
+        <v>16.348148148148141</v>
+      </c>
+      <c r="H25" s="57">
         <f>AVERAGE(E25:E26)</f>
-        <v>10223.809523809519</v>
-      </c>
-      <c r="I25" s="43">
+        <v>10.223809523809518</v>
+      </c>
+      <c r="I25" s="61">
         <f>((G25+H25)/2)</f>
-        <v>13285.978835978829</v>
+        <v>13.285978835978829</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B20</f>
         <v>Combat Vessels</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D26" s="29">
         <f>'Version 1 (AD)'!H20</f>
-        <v>24000</v>
-      </c>
-      <c r="E26" s="62">
+        <v>24</v>
+      </c>
+      <c r="E26" s="29">
         <f>'Version 1 (AD)'!I20</f>
-        <v>14857.142857142859</v>
-      </c>
-      <c r="F26" s="62">
+        <v>14.857142857142858</v>
+      </c>
+      <c r="F26" s="29">
         <f>'Version 1 (AD)'!J20</f>
-        <v>19428.571428571428</v>
-      </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="44"/>
+        <v>19.428571428571431</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
@@ -6968,29 +7098,29 @@
         <f>'Version 1 (Number of Files)'!B21</f>
         <v>Training Ships</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="30">
         <f>'Version 1 (AD)'!H21</f>
-        <v>21135.135135135119</v>
-      </c>
-      <c r="E27" s="63">
+        <v>21.135135135135119</v>
+      </c>
+      <c r="E27" s="30">
         <f>'Version 1 (AD)'!I21</f>
-        <v>9812.7413127413074</v>
-      </c>
-      <c r="F27" s="63">
+        <v>9.8127413127413057</v>
+      </c>
+      <c r="F27" s="30">
         <f>'Version 1 (AD)'!J21</f>
-        <v>15473.938223938214</v>
-      </c>
-      <c r="G27" s="68">
-        <f>D27</f>
-        <v>21135.135135135119</v>
-      </c>
-      <c r="H27" s="68">
-        <f>E27</f>
-        <v>9812.7413127413074</v>
+        <v>15.473938223938212</v>
+      </c>
+      <c r="G27" s="32">
+        <f t="shared" ref="G27:H29" si="0">D27</f>
+        <v>21.135135135135119</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" si="0"/>
+        <v>9.8127413127413057</v>
       </c>
       <c r="I27" s="22">
         <f>((G27+H27)/2)</f>
-        <v>15473.938223938214</v>
+        <v>15.473938223938212</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7004,29 +7134,29 @@
         <f>'Version 1 (Number of Files)'!B25</f>
         <v>Fishing Vessels</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="30">
         <f>'Version 1 (AD)'!H25</f>
-        <v>17298.607038123151</v>
-      </c>
-      <c r="E28" s="63">
+        <v>17.298607038123151</v>
+      </c>
+      <c r="E28" s="30">
         <f>'Version 1 (AD)'!I25</f>
-        <v>8649.3035190615738</v>
-      </c>
-      <c r="F28" s="63">
+        <v>8.6493035190615739</v>
+      </c>
+      <c r="F28" s="30">
         <f>'Version 1 (AD)'!J25</f>
-        <v>12973.955278592362</v>
-      </c>
-      <c r="G28" s="68">
-        <f>D28</f>
-        <v>17298.607038123151</v>
-      </c>
-      <c r="H28" s="68">
-        <f>E28</f>
-        <v>8649.3035190615738</v>
+        <v>12.973955278592364</v>
+      </c>
+      <c r="G28" s="32">
+        <f t="shared" si="0"/>
+        <v>17.298607038123151</v>
+      </c>
+      <c r="H28" s="32">
+        <f t="shared" si="0"/>
+        <v>8.6493035190615739</v>
       </c>
       <c r="I28" s="22">
         <f>((G28+H28)/2)</f>
-        <v>12973.955278592362</v>
+        <v>12.973955278592364</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7040,29 +7170,29 @@
         <f>'Version 1 (Number of Files)'!B18</f>
         <v>Platforms</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="31">
         <f>'Version 1 (AD)'!H18</f>
-        <v>25394.918699186866</v>
-      </c>
-      <c r="E29" s="64">
+        <v>25.394918699186871</v>
+      </c>
+      <c r="E29" s="31">
         <f>'Version 1 (AD)'!I18</f>
-        <v>16325.304878048697</v>
-      </c>
-      <c r="F29" s="64">
+        <v>16.325304878048698</v>
+      </c>
+      <c r="F29" s="31">
         <f>'Version 1 (AD)'!J18</f>
-        <v>20860.111788617782</v>
+        <v>20.860111788617786</v>
       </c>
       <c r="G29" s="25">
-        <f>D29</f>
-        <v>25394.918699186866</v>
+        <f t="shared" si="0"/>
+        <v>25.394918699186871</v>
       </c>
       <c r="H29" s="25">
-        <f>E29</f>
-        <v>16325.304878048697</v>
+        <f t="shared" si="0"/>
+        <v>16.325304878048698</v>
       </c>
       <c r="I29" s="25">
         <f>((G29+H29)/2)</f>
-        <v>20860.111788617782</v>
+        <v>20.860111788617786</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8041,6 +8171,23 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H4:H13"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H16:H22"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="G4:G13"/>
@@ -8053,23 +8200,6 @@
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I16:I22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="I4:I13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H4:H13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8097,401 +8227,401 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="72" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="72" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="70">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="73" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="11" t="str">
         <f>'Version 1 (Number of Files)'!B$3</f>
         <v>Container Ships</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="74">
         <f>'Version 1 (Number of Files)'!C3 + 'Version 1 (Number of Files)'!C4 + 'Version 1 (Number of Files)'!C7 + 'Version 1 (Number of Files)'!C9 + 'Version 1 (Number of Files)'!C10 + 'Version 1 (Number of Files)'!C13 + 'Version 1 (Number of Files)'!C14 + 'Version 1 (Number of Files)'!C15 + 'Version 1 (Number of Files)'!C24 + 'Version 1 (Number of Files)'!C27</f>
-        <v>105280</v>
-      </c>
-      <c r="E4" s="56">
+        <v>74178</v>
+      </c>
+      <c r="E4" s="74">
         <f>'Version 1 (Number of Files)'!D3 + 'Version 1 (Number of Files)'!D4 + 'Version 1 (Number of Files)'!D7 + 'Version 1 (Number of Files)'!D9 + 'Version 1 (Number of Files)'!D10 + 'Version 1 (Number of Files)'!D13 + 'Version 1 (Number of Files)'!D14 + 'Version 1 (Number of Files)'!D15 + 'Version 1 (Number of Files)'!D24 + 'Version 1 (Number of Files)'!D27</f>
-        <v>15329</v>
-      </c>
-      <c r="F4" s="56">
+        <v>15892</v>
+      </c>
+      <c r="F4" s="74">
         <f>'Version 1 (Number of Files)'!E3 + 'Version 1 (Number of Files)'!E4 + 'Version 1 (Number of Files)'!E7 + 'Version 1 (Number of Files)'!E9 + 'Version 1 (Number of Files)'!E10 + 'Version 1 (Number of Files)'!E13 + 'Version 1 (Number of Files)'!E14 + 'Version 1 (Number of Files)'!E15 + 'Version 1 (Number of Files)'!E24 + 'Version 1 (Number of Files)'!E27</f>
-        <v>14393</v>
-      </c>
-      <c r="G4" s="56">
+        <v>15890</v>
+      </c>
+      <c r="G4" s="74">
         <f>'Version 1 (Number of Files)'!F3 + 'Version 1 (Number of Files)'!F4 + 'Version 1 (Number of Files)'!F7 + 'Version 1 (Number of Files)'!F9 + 'Version 1 (Number of Files)'!F10 + 'Version 1 (Number of Files)'!F13 + 'Version 1 (Number of Files)'!F14 + 'Version 1 (Number of Files)'!F15 + 'Version 1 (Number of Files)'!F24 + 'Version 1 (Number of Files)'!F27</f>
-        <v>135002</v>
+        <v>105960</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$4</f>
         <v>Bulk Carriers</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$7</f>
         <v>Ro-ro Cargo Ships</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$9</f>
         <v>Vehicles Carriers</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$10</f>
         <v>Reefers</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B13</f>
         <v>Heavy Load Carriers</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$14</f>
         <v>Wood Chips Carriers</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$15</f>
         <v>Livestock Carriers</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B$24</f>
         <v>Tankers</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="13" t="str">
         <f>'Version 1 (Number of Files)'!B$27</f>
         <v>Carrier/Floating</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="70">
         <v>1</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="70" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B5</f>
         <v>Passengers Ships</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="70">
         <f>'Version 1 (Number of Files)'!C5 + 'Version 1 (Number of Files)'!C6 +'Version 1 (Number of Files)'!C11 + 'Version 1 (Number of Files)'!C12</f>
-        <v>24399</v>
-      </c>
-      <c r="E14" s="54">
+        <v>17094</v>
+      </c>
+      <c r="E14" s="70">
         <f>'Version 1 (Number of Files)'!D5 + 'Version 1 (Number of Files)'!D6 +'Version 1 (Number of Files)'!D11 + 'Version 1 (Number of Files)'!D12</f>
-        <v>3626</v>
-      </c>
-      <c r="F14" s="54">
+        <v>3662</v>
+      </c>
+      <c r="F14" s="70">
         <f>'Version 1 (Number of Files)'!E5 + 'Version 1 (Number of Files)'!E6 +'Version 1 (Number of Files)'!E11 + 'Version 1 (Number of Files)'!E12</f>
-        <v>3237</v>
-      </c>
-      <c r="G14" s="54">
+        <v>3660</v>
+      </c>
+      <c r="G14" s="70">
         <f>'Version 1 (Number of Files)'!F5 + 'Version 1 (Number of Files)'!F6 +'Version 1 (Number of Files)'!F11 + 'Version 1 (Number of Files)'!F12</f>
-        <v>31262</v>
+        <v>24416</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B6</f>
         <v>Ro-ro Passenger Ships</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="12" t="str">
         <f>'Version 1 (Number of Files)'!B11</f>
         <v>Yachts</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="13" t="str">
         <f>'Version 1 (Number of Files)'!B12</f>
         <v>Sailing Vessels</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="70">
         <v>2</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="70" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B8</f>
         <v>Tugs</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="70">
         <f>'Version 1 (Number of Files)'!C8 + 'Version 1 (Number of Files)'!C16 + 'Version 1 (Number of Files)'!C19 + 'Version 1 (Number of Files)'!C23 + 'Version 1 (Number of Files)'!C26 + 'Version 1 (Number of Files)'!C28 + 'Version 1 (Number of Files)'!C22 + 'Version 1 (Number of Files)'!C21 + 'Version 1 (Number of Files)'!C25</f>
-        <v>51067</v>
-      </c>
-      <c r="E18" s="54">
+        <v>32782</v>
+      </c>
+      <c r="E18" s="70">
         <f>'Version 1 (Number of Files)'!D8 + 'Version 1 (Number of Files)'!D16 + 'Version 1 (Number of Files)'!D19 + 'Version 1 (Number of Files)'!D23 + 'Version 1 (Number of Files)'!D26 + 'Version 1 (Number of Files)'!D28 + 'Version 1 (Number of Files)'!D22 + 'Version 1 (Number of Files)'!D21 + 'Version 1 (Number of Files)'!D25</f>
-        <v>7560</v>
-      </c>
-      <c r="F18" s="54">
+        <v>7024</v>
+      </c>
+      <c r="F18" s="70">
         <f>'Version 1 (Number of Files)'!E8 + 'Version 1 (Number of Files)'!E16 + 'Version 1 (Number of Files)'!E19 + 'Version 1 (Number of Files)'!E23 + 'Version 1 (Number of Files)'!E26 + 'Version 1 (Number of Files)'!E28 + 'Version 1 (Number of Files)'!E22 + 'Version 1 (Number of Files)'!E21 + 'Version 1 (Number of Files)'!E25</f>
-        <v>6250</v>
-      </c>
-      <c r="G18" s="54">
+        <v>7019</v>
+      </c>
+      <c r="G18" s="70">
         <f>'Version 1 (Number of Files)'!F8 + 'Version 1 (Number of Files)'!F16 + 'Version 1 (Number of Files)'!F19 + 'Version 1 (Number of Files)'!F23 + 'Version 1 (Number of Files)'!F26 + 'Version 1 (Number of Files)'!F28 + 'Version 1 (Number of Files)'!F22 + 'Version 1 (Number of Files)'!F21 + 'Version 1 (Number of Files)'!F25</f>
-        <v>64877</v>
+        <v>46825</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B16</f>
         <v>Fire Fighting Vessels</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B19</f>
         <v>Standby Safety Vessels</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B23</f>
         <v>Replenishment Vessels</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B26</f>
         <v>Supply Vessels</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B21</f>
         <v>Training Ships</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B22</f>
         <v>Icebreakers</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B28</f>
         <v>Dredgers</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="70">
         <v>3</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="70" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="11" t="str">
         <f>'Version 1 (Number of Files)'!B17</f>
         <v>Patrol Vessels</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="70">
         <f>'Version 1 (Number of Files)'!C$17+'Version 1 (Number of Files)'!C$20</f>
-        <v>1550</v>
-      </c>
-      <c r="E26" s="54">
+        <v>1035</v>
+      </c>
+      <c r="E26" s="70">
         <f>'Version 1 (Number of Files)'!D$17+'Version 1 (Number of Files)'!D$20</f>
-        <v>220</v>
-      </c>
-      <c r="F26" s="54">
+        <v>221</v>
+      </c>
+      <c r="F26" s="70">
         <f>'Version 1 (Number of Files)'!E$17+'Version 1 (Number of Files)'!E$20</f>
-        <v>187</v>
-      </c>
-      <c r="G26" s="54">
+        <v>222</v>
+      </c>
+      <c r="G26" s="70">
         <f>'Version 1 (Number of Files)'!F$17+'Version 1 (Number of Files)'!F$20</f>
-        <v>1957</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="13" t="str">
         <f>'Version 1 (Number of Files)'!B20</f>
         <v>Combat Vessels</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
@@ -8506,19 +8636,19 @@
       </c>
       <c r="D28" s="26">
         <f>'Version 1 (Number of Files)'!C18</f>
-        <v>1467</v>
+        <v>354</v>
       </c>
       <c r="E28" s="26">
         <f>'Version 1 (Number of Files)'!D18</f>
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="F28" s="26">
         <f>'Version 1 (Number of Files)'!E18</f>
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="G28" s="26">
         <f>'Version 1 (Number of Files)'!F18</f>
-        <v>1823</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8533,7 +8663,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3">
         <f>SUM(G4:G28)</f>
-        <v>234921</v>
+        <v>179184</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9508,10 +9638,24 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="D18:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -9519,26 +9663,12 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="G18:G25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="B18:B25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F4:F13"/>
-    <mergeCell ref="G4:G13"/>
-    <mergeCell ref="D4:D13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9549,7 +9679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C01F3F-0555-4C41-9E6D-8F11DE21B913}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -9568,30 +9698,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="69"/>
-      <c r="I2" s="29"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -9604,22 +9734,22 @@
         <f>'Version 1 (AD)'!A2</f>
         <v>Category</v>
       </c>
-      <c r="D3" s="60" t="str">
+      <c r="D3" s="27" t="str">
         <f>'Version 1 (AD)'!H2</f>
         <v>Max AD (mm)</v>
       </c>
-      <c r="E3" s="60" t="str">
+      <c r="E3" s="27" t="str">
         <f>'Version 1 (AD)'!I2</f>
         <v>Min AD (mm)</v>
       </c>
-      <c r="F3" s="61" t="str">
+      <c r="F3" s="28" t="str">
         <f>'Version 1 (AD)'!J2</f>
         <v>MAD (mm)</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="33" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="19" t="s">
@@ -9627,631 +9757,631 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="44">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B$3</f>
         <v>Container Ships</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="30">
         <f>'Version 1 (AD)'!H3</f>
-        <v>33361.149193548299</v>
-      </c>
-      <c r="E4" s="63">
+        <v>39.426812683284354</v>
+      </c>
+      <c r="E4" s="30">
         <f>'Version 1 (AD)'!I3</f>
-        <v>20652.139976958475</v>
-      </c>
-      <c r="F4" s="63">
+        <v>33.3611491935483</v>
+      </c>
+      <c r="F4" s="30">
         <f>'Version 1 (AD)'!J3</f>
-        <v>27006.644585253387</v>
-      </c>
-      <c r="G4" s="65">
+        <v>36.393980938416327</v>
+      </c>
+      <c r="G4" s="57">
         <f>AVERAGE(D4:D13)</f>
-        <v>23175.717002231868</v>
-      </c>
-      <c r="H4" s="65">
+        <v>27.702402836408236</v>
+      </c>
+      <c r="H4" s="57">
         <f>AVERAGE(E4:E13)</f>
-        <v>14493.04418803195</v>
-      </c>
-      <c r="I4" s="43">
+        <v>16.668126051195816</v>
+      </c>
+      <c r="I4" s="61">
         <f>((G4+H4)/2)</f>
-        <v>18834.380595131908</v>
+        <v>22.185264443802026</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$4</f>
         <v>Bulk Carriers</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="29">
         <f>'Version 1 (AD)'!H4</f>
-        <v>22780.524017467254</v>
-      </c>
-      <c r="E5" s="62">
+        <v>22.780524017467254</v>
+      </c>
+      <c r="E5" s="29">
         <f>'Version 1 (AD)'!I4</f>
-        <v>14644.622582657519</v>
-      </c>
-      <c r="F5" s="62">
+        <v>14.644622582657519</v>
+      </c>
+      <c r="F5" s="29">
         <f>'Version 1 (AD)'!J4</f>
-        <v>18712.573300062388</v>
-      </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="38"/>
+        <v>18.712573300062388</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$7</f>
         <v>Ro-ro Cargo Ships</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="29">
         <f>'Version 1 (AD)'!H7</f>
-        <v>19811.409395973151</v>
-      </c>
-      <c r="E6" s="62">
+        <v>19.811409395973151</v>
+      </c>
+      <c r="E6" s="29">
         <f>'Version 1 (AD)'!I7</f>
-        <v>12264.20581655481</v>
-      </c>
-      <c r="F6" s="62">
+        <v>12.26420581655481</v>
+      </c>
+      <c r="F6" s="29">
         <f>'Version 1 (AD)'!J7</f>
-        <v>16037.807606263981</v>
-      </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="38"/>
+        <v>16.037807606263982</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$9</f>
         <v>Vehicles Carriers</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="29">
         <f>'Version 1 (AD)'!H6</f>
-        <v>18131.66855845628</v>
-      </c>
-      <c r="E7" s="62">
+        <v>25.686530457813063</v>
+      </c>
+      <c r="E7" s="29">
         <f>'Version 1 (AD)'!I6</f>
-        <v>10576.806659099499</v>
-      </c>
-      <c r="F7" s="62">
+        <v>10.576806659099496</v>
+      </c>
+      <c r="F7" s="29">
         <f>'Version 1 (AD)'!J6</f>
-        <v>14354.23760877789</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="38"/>
+        <v>18.13166855845628</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$10</f>
         <v>Reefers</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="29">
         <f>'Version 1 (AD)'!H10</f>
-        <v>20412.284482758601</v>
-      </c>
-      <c r="E8" s="62">
+        <v>20.412284482758601</v>
+      </c>
+      <c r="E8" s="29">
         <f>'Version 1 (AD)'!I10</f>
-        <v>12636.176108374373</v>
-      </c>
-      <c r="F8" s="62">
+        <v>12.636176108374373</v>
+      </c>
+      <c r="F8" s="29">
         <f>'Version 1 (AD)'!J10</f>
-        <v>16524.230295566485</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="38"/>
+        <v>16.524230295566486</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B13</f>
         <v>Heavy Load Carriers</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="29">
         <f>'Version 1 (AD)'!H13</f>
-        <v>11608.34879406308</v>
-      </c>
-      <c r="E9" s="62">
+        <v>11.60834879406308</v>
+      </c>
+      <c r="E9" s="29">
         <f>'Version 1 (AD)'!I13</f>
-        <v>7639.6825396825388</v>
-      </c>
-      <c r="F9" s="62">
+        <v>7.6396825396825383</v>
+      </c>
+      <c r="F9" s="29">
         <f>'Version 1 (AD)'!J13</f>
-        <v>9624.0156668728087</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="38"/>
+        <v>9.6240156668728094</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$14</f>
         <v>Wood Chips Carriers</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="29">
         <f>'Version 1 (AD)'!H14</f>
-        <v>21442.452830188671</v>
-      </c>
-      <c r="E10" s="62">
+        <v>21.442452830188671</v>
+      </c>
+      <c r="E10" s="29">
         <f>'Version 1 (AD)'!I14</f>
-        <v>13784.433962264144</v>
-      </c>
-      <c r="F10" s="62">
+        <v>13.784433962264146</v>
+      </c>
+      <c r="F10" s="29">
         <f>'Version 1 (AD)'!J14</f>
-        <v>17613.443396226408</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="38"/>
+        <v>17.613443396226408</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$15</f>
         <v>Livestock Carriers</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="29">
         <f>'Version 1 (AD)'!H15</f>
-        <v>17748.333333333332</v>
-      </c>
-      <c r="E11" s="62">
+        <v>17.748333333333331</v>
+      </c>
+      <c r="E11" s="29">
         <f>'Version 1 (AD)'!I15</f>
-        <v>10987.063492063493</v>
-      </c>
-      <c r="F11" s="62">
+        <v>10.987063492063491</v>
+      </c>
+      <c r="F11" s="29">
         <f>'Version 1 (AD)'!J15</f>
-        <v>14367.698412698413</v>
-      </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="38"/>
+        <v>14.367698412698411</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B$24</f>
         <v>Tankers</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="29">
         <f>'Version 1 (AD)'!H24</f>
-        <v>25317.066362136735</v>
-      </c>
-      <c r="E12" s="62">
+        <v>56.963399314807646</v>
+      </c>
+      <c r="E12" s="29">
         <f>'Version 1 (AD)'!I24</f>
-        <v>16275.256947087897</v>
-      </c>
-      <c r="F12" s="62">
+        <v>25.317066362136735</v>
+      </c>
+      <c r="F12" s="29">
         <f>'Version 1 (AD)'!J24</f>
-        <v>20796.161654612315</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="38"/>
+        <v>41.140232838472187</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B$27</f>
         <v>Carrier/Floating</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="29">
         <f>'Version 1 (AD)'!H27</f>
-        <v>41143.933054393201</v>
-      </c>
-      <c r="E13" s="62">
+        <v>41.143933054393202</v>
+      </c>
+      <c r="E13" s="29">
         <f>'Version 1 (AD)'!I27</f>
-        <v>25470.05379557675</v>
-      </c>
-      <c r="F13" s="62">
+        <v>25.470053795576746</v>
+      </c>
+      <c r="F13" s="29">
         <f>'Version 1 (AD)'!J27</f>
-        <v>33306.993424984976</v>
-      </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="39"/>
+        <v>33.306993424984974</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="73">
+      <c r="A14" s="79">
         <v>1</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="14" t="str">
         <f>'Version 1 (Number of Files)'!B5</f>
         <v>Passengers Ships</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="30">
         <f>'Version 1 (AD)'!H5</f>
-        <v>21317.153024911</v>
-      </c>
-      <c r="E14" s="63">
+        <v>18.894749272080205</v>
+      </c>
+      <c r="E14" s="30">
         <f>'Version 1 (AD)'!I5</f>
-        <v>12435.005931198084</v>
-      </c>
-      <c r="F14" s="63">
+        <v>12.435005931198086</v>
+      </c>
+      <c r="F14" s="30">
         <f>'Version 1 (AD)'!J5</f>
-        <v>16876.07947805454</v>
-      </c>
-      <c r="G14" s="65">
+        <v>15.664877601639144</v>
+      </c>
+      <c r="G14" s="57">
         <f>AVERAGE(D14:D17)</f>
-        <v>27638.386324301857</v>
-      </c>
-      <c r="H14" s="65">
+        <v>28.921500860933353</v>
+      </c>
+      <c r="H14" s="57">
         <f>AVERAGE(E14:E17)</f>
-        <v>10361.592647545516</v>
-      </c>
-      <c r="I14" s="65">
+        <v>10.361592647545516</v>
+      </c>
+      <c r="I14" s="57">
         <f>AVERAGE(F14:F17)</f>
-        <v>18999.989485923688</v>
+        <v>19.641546754239435</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="71" t="str">
+      <c r="A15" s="80"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="34" t="str">
         <f>'Version 1 (Number of Files)'!B6</f>
         <v>Ro-ro Passenger Ships</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="29">
         <f>'Version 1 (AD)'!H6</f>
-        <v>18131.66855845628</v>
-      </c>
-      <c r="E15" s="62">
+        <v>25.686530457813063</v>
+      </c>
+      <c r="E15" s="29">
         <f>'Version 1 (AD)'!I6</f>
-        <v>10576.806659099499</v>
-      </c>
-      <c r="F15" s="62">
+        <v>10.576806659099496</v>
+      </c>
+      <c r="F15" s="29">
         <f>'Version 1 (AD)'!J6</f>
-        <v>14354.23760877789</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
+        <v>18.13166855845628</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
+      <c r="A16" s="80"/>
       <c r="B16" s="77"/>
-      <c r="C16" s="71" t="str">
+      <c r="C16" s="34" t="str">
         <f>'Version 1 (Number of Files)'!B11</f>
         <v>Yachts</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="29">
         <f>'Version 1 (AD)'!H11</f>
-        <v>30702.549800796751</v>
-      </c>
-      <c r="E16" s="62">
+        <v>30.702549800796746</v>
+      </c>
+      <c r="E16" s="29">
         <f>'Version 1 (AD)'!I11</f>
-        <v>7959.9203187250841</v>
-      </c>
-      <c r="F16" s="62">
+        <v>7.959920318725084</v>
+      </c>
+      <c r="F16" s="29">
         <f>'Version 1 (AD)'!J11</f>
-        <v>19331.235059760918</v>
-      </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
+        <v>19.331235059760914</v>
+      </c>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="78"/>
       <c r="C17" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B12</f>
         <v>Sailing Vessels</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="29">
         <f>'Version 1 (AD)'!H12</f>
-        <v>40402.173913043407</v>
-      </c>
-      <c r="E17" s="62">
+        <v>40.402173913043399</v>
+      </c>
+      <c r="E17" s="29">
         <f>'Version 1 (AD)'!I12</f>
-        <v>10474.637681159402</v>
-      </c>
-      <c r="F17" s="62">
+        <v>10.474637681159402</v>
+      </c>
+      <c r="F17" s="29">
         <f>'Version 1 (AD)'!J12</f>
-        <v>25438.405797101404</v>
-      </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
+        <v>25.438405797101399</v>
+      </c>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="44">
         <v>2</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="84" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B8</f>
         <v>Tugs</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="30">
         <f>'Version 1 (AD)'!H8</f>
-        <v>7346.9557195571988</v>
-      </c>
-      <c r="E18" s="63">
+        <v>12.594781233526628</v>
+      </c>
+      <c r="E18" s="30">
         <f>'Version 1 (AD)'!I8</f>
-        <v>4897.9704797048007</v>
-      </c>
-      <c r="F18" s="63">
+        <v>4.8979704797048003</v>
+      </c>
+      <c r="F18" s="30">
         <f>'Version 1 (AD)'!J8</f>
-        <v>6122.4630996309997</v>
-      </c>
-      <c r="G18" s="65">
+        <v>8.7463758566157139</v>
+      </c>
+      <c r="G18" s="57">
         <f>AVERAGE(D18:D26)</f>
-        <v>13445.556100339267</v>
-      </c>
-      <c r="H18" s="65">
+        <v>14.028647824113648</v>
+      </c>
+      <c r="H18" s="57">
         <f>AVERAGE(E18:E26)</f>
-        <v>8460.4996995534948</v>
-      </c>
-      <c r="I18" s="43">
+        <v>8.4604996995534947</v>
+      </c>
+      <c r="I18" s="61">
         <f>((G18+H18)/2)</f>
-        <v>10953.027899946381</v>
+        <v>11.244573761833571</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B16</f>
         <v>Fire Fighting Vessels</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="29">
         <f>'Version 1 (AD)'!H16</f>
-        <v>11731.61512027491</v>
-      </c>
-      <c r="E19" s="62">
+        <v>11.73161512027491</v>
+      </c>
+      <c r="E19" s="29">
         <f>'Version 1 (AD)'!I16</f>
-        <v>7541.7525773195839</v>
-      </c>
-      <c r="F19" s="62">
+        <v>7.5417525773195848</v>
+      </c>
+      <c r="F19" s="29">
         <f>'Version 1 (AD)'!J16</f>
-        <v>9636.6838487972473</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="38"/>
+        <v>9.6366838487972473</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B19</f>
         <v>Standby Safety Vessels</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="29">
         <f>'Version 1 (AD)'!H19</f>
-        <v>11511.538461538456</v>
-      </c>
-      <c r="E20" s="62">
+        <v>11.511538461538454</v>
+      </c>
+      <c r="E20" s="29">
         <f>'Version 1 (AD)'!I19</f>
-        <v>7400.2747252747185</v>
-      </c>
-      <c r="F20" s="62">
+        <v>7.400274725274719</v>
+      </c>
+      <c r="F20" s="29">
         <f>'Version 1 (AD)'!J19</f>
-        <v>9455.9065934065875</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="38"/>
+        <v>9.4559065934065867</v>
+      </c>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="48"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B23</f>
         <v>Replenishment Vessels</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="29">
         <f>'Version 1 (AD)'!H23</f>
-        <v>20376.754385964901</v>
-      </c>
-      <c r="E21" s="62">
+        <v>20.376754385964901</v>
+      </c>
+      <c r="E21" s="29">
         <f>'Version 1 (AD)'!I23</f>
-        <v>13099.342105263147</v>
-      </c>
-      <c r="F21" s="62">
+        <v>13.099342105263149</v>
+      </c>
+      <c r="F21" s="29">
         <f>'Version 1 (AD)'!J23</f>
-        <v>16738.048245614023</v>
-      </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="38"/>
+        <v>16.738048245614024</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B26</f>
         <v>Supply Vessels</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="29">
         <f>'Version 1 (AD)'!H26</f>
-        <v>12267.891031527368</v>
-      </c>
-      <c r="E22" s="62">
+        <v>12.26789103152737</v>
+      </c>
+      <c r="E22" s="29">
         <f>'Version 1 (AD)'!I26</f>
-        <v>7886.5013774104491</v>
-      </c>
-      <c r="F22" s="62">
+        <v>7.8865013774104504</v>
+      </c>
+      <c r="F22" s="29">
         <f>'Version 1 (AD)'!J26</f>
-        <v>10077.196204468908</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="38"/>
+        <v>10.07719620446891</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B28</f>
         <v>Dredgers</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="29">
         <f>'Version 1 (AD)'!H28</f>
-        <v>8190.8653846153802</v>
-      </c>
-      <c r="E23" s="62">
+        <v>8.1908653846153783</v>
+      </c>
+      <c r="E23" s="29">
         <f>'Version 1 (AD)'!I28</f>
-        <v>5460.5769230769201</v>
-      </c>
-      <c r="F23" s="62">
+        <v>5.4605769230769203</v>
+      </c>
+      <c r="F23" s="29">
         <f>'Version 1 (AD)'!J28</f>
-        <v>6825.7211538461506</v>
-      </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="38"/>
+        <v>6.8257211538461497</v>
+      </c>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="48"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B21</f>
         <v>Training Ships</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="29">
         <f>'Version 1 (AD)'!H16</f>
-        <v>11731.61512027491</v>
-      </c>
-      <c r="E24" s="62">
+        <v>11.73161512027491</v>
+      </c>
+      <c r="E24" s="29">
         <f>'Version 1 (AD)'!I16</f>
-        <v>7541.7525773195839</v>
-      </c>
-      <c r="F24" s="62">
+        <v>7.5417525773195848</v>
+      </c>
+      <c r="F24" s="29">
         <f>'Version 1 (AD)'!J16</f>
-        <v>9636.6838487972473</v>
-      </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="44"/>
+        <v>9.6366838487972473</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B25</f>
         <v>Fishing Vessels</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="29">
         <f>'Version 1 (AD)'!H20</f>
-        <v>24000</v>
-      </c>
-      <c r="E25" s="62">
+        <v>24</v>
+      </c>
+      <c r="E25" s="29">
         <f>'Version 1 (AD)'!I20</f>
-        <v>14857.142857142859</v>
-      </c>
-      <c r="F25" s="62">
+        <v>14.857142857142858</v>
+      </c>
+      <c r="F25" s="29">
         <f>'Version 1 (AD)'!J20</f>
-        <v>19428.571428571428</v>
-      </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="44"/>
+        <v>19.428571428571431</v>
+      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B22</f>
         <v>Icebreakers</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D26" s="29">
         <f>'Version 1 (AD)'!H22</f>
-        <v>13852.76967930028</v>
-      </c>
-      <c r="E26" s="62">
+        <v>13.85276967930028</v>
+      </c>
+      <c r="E26" s="29">
         <f>'Version 1 (AD)'!I22</f>
-        <v>7459.1836734693798</v>
-      </c>
-      <c r="F26" s="62">
+        <v>7.4591836734693802</v>
+      </c>
+      <c r="F26" s="29">
         <f>'Version 1 (AD)'!J22</f>
-        <v>10655.976676384829</v>
-      </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="44"/>
+        <v>10.65597667638483</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="44">
         <v>4</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="55" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="16" t="str">
         <f>'Version 1 (Number of Files)'!B17</f>
         <v>Patrol Vessels</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="30">
         <f>'Version 1 (AD)'!H17</f>
-        <v>8696.2962962962811</v>
-      </c>
-      <c r="E27" s="63">
+        <v>8.696296296296282</v>
+      </c>
+      <c r="E27" s="30">
         <f>'Version 1 (AD)'!I17</f>
-        <v>5590.4761904761799</v>
-      </c>
-      <c r="F27" s="63">
+        <v>5.5904761904761786</v>
+      </c>
+      <c r="F27" s="30">
         <f>'Version 1 (AD)'!J17</f>
-        <v>7143.3862433862305</v>
-      </c>
-      <c r="G27" s="65">
+        <v>7.1433862433862299</v>
+      </c>
+      <c r="G27" s="57">
         <f>AVERAGE(D27:D28)</f>
-        <v>16348.148148148141</v>
-      </c>
-      <c r="H27" s="65">
+        <v>16.348148148148141</v>
+      </c>
+      <c r="H27" s="57">
         <f>AVERAGE(E27:E28)</f>
-        <v>10223.809523809519</v>
-      </c>
-      <c r="I27" s="43">
+        <v>10.223809523809518</v>
+      </c>
+      <c r="I27" s="61">
         <f>((G27+H27)/2)</f>
-        <v>13285.978835978829</v>
+        <v>13.285978835978829</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="15" t="str">
         <f>'Version 1 (Number of Files)'!B20</f>
         <v>Combat Vessels</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D28" s="29">
         <f>'Version 1 (AD)'!H20</f>
-        <v>24000</v>
-      </c>
-      <c r="E28" s="62">
+        <v>24</v>
+      </c>
+      <c r="E28" s="29">
         <f>'Version 1 (AD)'!I20</f>
-        <v>14857.142857142859</v>
-      </c>
-      <c r="F28" s="62">
+        <v>14.857142857142858</v>
+      </c>
+      <c r="F28" s="29">
         <f>'Version 1 (AD)'!J20</f>
-        <v>19428.571428571428</v>
-      </c>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="44"/>
+        <v>19.428571428571431</v>
+      </c>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
@@ -10264,29 +10394,29 @@
         <f>'Version 1 (Number of Files)'!B18</f>
         <v>Platforms</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="31">
         <f>'Version 1 (AD)'!H18</f>
-        <v>25394.918699186866</v>
-      </c>
-      <c r="E29" s="64">
+        <v>25.394918699186871</v>
+      </c>
+      <c r="E29" s="31">
         <f>'Version 1 (AD)'!I18</f>
-        <v>16325.304878048697</v>
-      </c>
-      <c r="F29" s="64">
+        <v>16.325304878048698</v>
+      </c>
+      <c r="F29" s="31">
         <f>'Version 1 (AD)'!J18</f>
-        <v>20860.111788617782</v>
+        <v>20.860111788617786</v>
       </c>
       <c r="G29" s="25">
         <f>D29</f>
-        <v>25394.918699186866</v>
+        <v>25.394918699186871</v>
       </c>
       <c r="H29" s="25">
         <f>E29</f>
-        <v>16325.304878048697</v>
+        <v>16.325304878048698</v>
       </c>
       <c r="I29" s="25">
         <f>((G29+H29)/2)</f>
-        <v>20860.111788617782</v>
+        <v>20.860111788617786</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11265,21 +11395,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="G18:G26"/>
-    <mergeCell ref="H18:H26"/>
-    <mergeCell ref="I18:I26"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
@@ -11289,6 +11404,21 @@
     <mergeCell ref="G4:G13"/>
     <mergeCell ref="H4:H13"/>
     <mergeCell ref="I4:I13"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="G18:G26"/>
+    <mergeCell ref="H18:H26"/>
+    <mergeCell ref="I18:I26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
